--- a/validacion.xlsx
+++ b/validacion.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\linux_share\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\D\Zona de Trabajo\SQL\Recaudacion-BN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EF3B7C-DC99-40DF-8065-338835EBE9C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EE1D57-5517-401A-834B-74F641C8DCF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28800" windowHeight="13605" xr2:uid="{8D083D23-69AA-4411-88FA-927F8FD39A68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D083D23-69AA-4411-88FA-927F8FD39A68}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -22,69 +22,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="71">
-  <si>
-    <t xml:space="preserve">20000105428 0009012XXXXX               XXXXX               XXXXX               00000044168845920031212000000000000000000000000000000000000000000000006068002786ATR-20210226000000441688459000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20000122752 0009012XXXXX               XXXXX               XXXXX               00000045786772820031130000000000000000000000000000000000000000000000006068002786ATR-20210226000000457867728000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20020126391 0060012XXXXX                                                       00000001641024920080222000000000000000000000000000000000000000000000006068002786ATR-20210226000000016410249000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20030126060 0016012XXXXX               XXXXX               XXXXX               00000006650969720100402000000000000000000000000000000000000000000000006068002786ATR-20210226000000066509697000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20030126214 0001012XXXXX                                                       00000019871744820100716000000000000000000000000000000000000000000000006068002786ATR-20210226000000198717448000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20030126636 0016012XXXXX               XXXXX               XXXXX               00000006650968620100301000000000000000000000000000000000000000000000006068002786ATR-20210226000000066509686000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20040126633 0001012XXXXX               XXXXX               XXXXX               00000000301493920120519000000000000000000000000000000000000000000000006068002786ATR-20210226000000003014939000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20040126713 0040012XXXXX               XXXXX               XXXXX               00000002133480920080609000000000000000000000000000000000000000000000006068002786ATR-20210226000000021334809000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20040127862 0049012XXXXX               XXXXX               XXXXX               00000001018415620080402000000000000000000000000000000000000000000000006068002786ATR-20210226000000010184156000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20050130610 0036012XXXXX               XXXXX               XXXXX               00000000849252920080813000000000000000000000000000000000000000000000006068002786ATR-20210226000000008492529000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20050167845 0191012XXXXX               XXXXX               XXXXX               00000000002424620210216000000000000000000000000000000000000000000000006068002786ATR-20210226000000000024246000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20050167845 0192012XXXXX               XXXXX               XXXXX               00000000002409720210316000000000000000000000000000000000000000000000006068002786ACT-20210226000000000024097000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20050167847 0191012XXXXX               XXXXX               XXXXX               00000000002766320210211000000000000000000000000000000000000000000000006068002786ATR-20210226000000000027663000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20050167847 0192012XXXXX               XXXXX               XXXXX               00000000002742120210311000000000000000000000000000000000000000000000006068002786ACT-20210226000000000027421000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20050167867 0263012XXXXX               XXXXX               XXXXX               00000000005079520210210000000000000000000000000000000000000000000000006068002786ATR-20210226000000000050795000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20050167867 0264012XXXXX               XXXXX               XXXXX               00000000002659020210310000000000000000000000000000000000000000000000006068002786ACT-20210226000000000026590000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20060117136 0174012XXXXX               XXXXX               XXXXX               00000000042184420210320000000000000000000000000000000000000000000000006068002786ACT-20210226000000000421844000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20060131724 0056012XXXXX                                                       00000000277985120201230000000000000000000000000000000000000000000000006068002786ATR-20210226000000002779851000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20060131724 0057012XXXXX                                                       00000000085000020210330000000000000000000000000000000000000000000000006068002786ACT-20210226000000000850000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000 </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="72">
   <si>
     <t>CABECERA</t>
   </si>
@@ -233,13 +184,73 @@
     <t>Importe del ITF</t>
   </si>
   <si>
-    <t>000001294962207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20212118428 0001011XXXXX               XXXXX               XXXXX               00000000007275620210228000000000000000000000000000000000000000000000000068385520ACT-20210226000000000072756000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">018010000000200000000000727560000012970889022021022601                                                                                                                                                                                                                                  </t>
+    <t>Trama</t>
+  </si>
+  <si>
+    <t>Cabecera</t>
+  </si>
+  <si>
+    <t>0201001407580126011XXXXX               XXXXX               XXXXX               00000000018173020210312000000000000000000000000000000000000000000000000068385520407582210310000000000125252000000000056058000000000000420000000000000000</t>
+  </si>
+  <si>
+    <t>0201201451740039011XXXXX                                                       00000003825758920210312000000000000000000000000000000000000000000000000068385520451742210310000000008076716000000016367175000000013813698000000000000000</t>
+  </si>
+  <si>
+    <t>0201401150670077011XXXXX               XXXXX               XXXXX               00000000195848420210312000000000000000000000000000000000000000000000000068385520150672210310000000001654140000000000247568000000000056776000000000000000</t>
+  </si>
+  <si>
+    <t>0201401466130065011XXXXX                                                       00000000011117220210312000000000000000000000000000000000000000000000000068385520466132210310000000000052822000000000057843000000000000507000000000000000</t>
+  </si>
+  <si>
+    <t>0201501582090048011XXXXX               XXXXX               XXXXX               00000000122276520210312000000000000000000000000000000000000000000000000068385520582092210310000000001128090000000000031612000000000063063000000000000000</t>
+  </si>
+  <si>
+    <t>0201501594270048011XXXXX               XXXXX               XXXXX               00000000071522120210312000000000000000000000000000000000000000000000000068385520594272210310000000000659050000000000018749000000000037422000000000000000</t>
+  </si>
+  <si>
+    <t>0201501618710048011XXXXX               XXXXX               XXXXX               00000000120854120210312000000000000000000000000000000000000000000000000068385520618712210310000000001111740000000000033738000000000063063000000000000000</t>
+  </si>
+  <si>
+    <t>0201501636580048011XXXXX               XXXXX               XXXXX               00000000069523620210312000000000000000000000000000000000000000000000000068385520636582210310000000000672493000000000006837000000000015906000000000000000</t>
+  </si>
+  <si>
+    <t>0201501638900057011XXXXX               XXXXX               XXXXX               00000000046992420210312000000000000000000000000000000000000000000000000068385520638902210310000000000463395000000000004824000000000001705000000000000000</t>
+  </si>
+  <si>
+    <t>0201601176760194011XXXXX               XXXXX               XXXXX               00000000046794220210312000000000000000000000000000000000000000000000000068385520176762210310000000000199695000000000267512000000000000735000000000000000</t>
+  </si>
+  <si>
+    <t>0200501678450191012XXXXX               XXXXX               XXXXX               00000000002442620210312000000000000000000000000000000000000000000000006068002786678452210310000000000015010000000000009240000000000000176000000000000000</t>
+  </si>
+  <si>
+    <t>0200501678470191012XXXXX               XXXXX               XXXXX               00000000002786720210312000000000000000000000000000000000000000000000006068002786678472210310000000000017082000000000010542000000000000243000000000000000</t>
+  </si>
+  <si>
+    <t>0200601317250057012XXXXX                                                       00000000212878920210312000000000000000000000000000000000000000000000006068002786317252210310000000002116781000000000012008000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>0200601317360056012XXXXX                                                       00000000128263420210312000000000000000000000000000000000000000000000006068002786317362210310000000001275393000000000007241000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>0200701313690055012XXXXX                                                       00000000076073720210312000000000000000000000000000000000000000000000006068002786313692210310000000000714473000000000009970000000000036294000000000000000</t>
+  </si>
+  <si>
+    <t>0201001381860060012XXXXX               XXXXX               XXXXX               00000000290328420210312000000000000000000000000000000000000000000000006068002786381862210310000000000765999000000000770985000000001366300000000000000000</t>
+  </si>
+  <si>
+    <t>0201101307330113012XXXXX               XXXXX               XXXXX               00000000033481520210312000000000000000000000000000000000000000000000006068002786307332210310000000000186610000000000147520000000000000685000000000000000</t>
+  </si>
+  <si>
+    <t>0201501323350069012XXXXX                                                       00000002020678520210312000000000000000000000000000000000000000000000006068002786323352210310000000011525249000000007180010000000001501526000000000000000</t>
+  </si>
+  <si>
+    <t>0201501323790064012XXXXX                                                       00000011634415420210312000000000000000000000000000000000000000000000006068002786323792210310000000058151719000000042981750000000015210685000000000000000</t>
+  </si>
+  <si>
+    <t>0201501461380060012XXXXX               XXXXX               XXXXX               00000000213780020210312000000000000000000000000000000000000000000000006068002786461382210310000000001096127000000000424778000000000616895000000000000000</t>
+  </si>
+  <si>
+    <t>018010000000200000000452886040000001461512912021031001</t>
   </si>
 </sst>
 </file>
@@ -268,12 +279,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -382,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -417,6 +434,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,8 +460,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +491,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -756,135 +786,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA30200-9003-4DE3-8A99-CBB9F3C09359}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD714456-3746-456D-9BD2-49FD6C80E586}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="13"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067F6767-FC35-40D9-9DB9-1830F354C204}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
@@ -896,14 +926,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>19</v>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2">
         <v>3</v>
@@ -913,108 +943,108 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D4" s="4">
         <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4">
         <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <v>226</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1026,31 +1056,34 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -1072,13 +1105,13 @@
       <c r="H11" s="2">
         <v>2</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="25">
         <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>70</v>
+      <c r="A12" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="B12" t="str">
         <f>LEFT($A$12,B11)</f>
@@ -1094,26 +1127,123 @@
       </c>
       <c r="E12" t="str">
         <f>RIGHT(LEFT($A$12,SUM($B$11:E11)),E11)</f>
-        <v>000000000072756</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
+        <v>000000045288604</v>
+      </c>
+      <c r="F12" t="str">
+        <f>RIGHT(LEFT($A$12,SUM($B$11:F11)),F11)</f>
+        <v>000000146151291</v>
       </c>
       <c r="G12" t="str">
         <f>RIGHT(LEFT($A$12,SUM($B$11:G11)),G11)</f>
-        <v>20210226</v>
+        <v>20210310</v>
       </c>
       <c r="H12" t="str">
         <f>RIGHT(LEFT($A$12,SUM($B$11:H11)),H11)</f>
         <v>01</v>
       </c>
-      <c r="I12" t="str">
-        <f>RIGHT(LEFT($A$12,SUM($B$11:I11)),I11)</f>
-        <v xml:space="preserve">                                                                                                                                                                                                                                  </v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="20"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>181730</v>
+      </c>
+      <c r="F14">
+        <v>24426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>38257589</v>
+      </c>
+      <c r="F15">
+        <v>27867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1958484</v>
+      </c>
+      <c r="F16">
+        <v>2128789</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>111172</v>
+      </c>
+      <c r="F17">
+        <v>1282634</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>1222765</v>
+      </c>
+      <c r="F18">
+        <v>760737</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>715221</v>
+      </c>
+      <c r="F19">
+        <v>2903284</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>1208541</v>
+      </c>
+      <c r="F20">
+        <v>334815</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>695236</v>
+      </c>
+      <c r="F21">
+        <v>20206785</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>469924</v>
+      </c>
+      <c r="F22">
+        <v>116344154</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>467942</v>
+      </c>
+      <c r="F23">
+        <v>2137800</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f>SUM(E14:E23)</f>
+        <v>45288604</v>
+      </c>
+      <c r="F25">
+        <f>SUM(F14:F23)</f>
+        <v>146151291</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f>TEXT(E12,"@")-E25</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>TEXT(F12,"@")-F25</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1126,13 +1256,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F6C1DE-071E-4594-9E29-8D6D02F43554}">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.5703125" customWidth="1"/>
     <col min="2" max="2" width="54.85546875" customWidth="1"/>
@@ -1150,1938 +1280,1923 @@
     <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="29" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>38</v>
+      <c r="A1" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="A5" s="14"/>
+      <c r="B5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="19">
         <v>60</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="18"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4">
         <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2">
         <v>15</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4">
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D13" s="4">
         <v>15</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2">
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D15" s="4">
         <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D16" s="7">
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D17" s="10">
         <v>15</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D18" s="10">
         <v>15</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D19" s="10">
         <v>15</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D20" s="10">
         <v>49</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22"/>
+    </row>
     <row r="22" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>47</v>
+      </c>
+      <c r="R22" t="s">
+        <v>48</v>
+      </c>
+      <c r="S22" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="P23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <v>60</v>
+      </c>
+      <c r="G24" s="4">
+        <v>15</v>
+      </c>
+      <c r="H24" s="4">
+        <v>8</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>15</v>
+      </c>
+      <c r="K24">
+        <v>15</v>
+      </c>
+      <c r="L24">
+        <v>15</v>
+      </c>
+      <c r="M24">
+        <v>11</v>
+      </c>
+      <c r="N24">
+        <v>12</v>
+      </c>
+      <c r="O24">
+        <v>15</v>
+      </c>
+      <c r="P24">
+        <v>15</v>
+      </c>
+      <c r="Q24">
+        <v>15</v>
+      </c>
+      <c r="R24">
+        <v>15</v>
+      </c>
+      <c r="S24" s="26">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="B25" t="str">
+        <f>LEFT($A25,B$24)</f>
+        <v>020100140758</v>
+      </c>
+      <c r="C25" t="str">
+        <f>RIGHT(LEFT($A25,SUM($B$24:C$24)),C$24)</f>
+        <v>0126</v>
+      </c>
+      <c r="D25" t="str">
+        <f>RIGHT(LEFT($A25,SUM($B$24:D$24)),D$24)</f>
+        <v>01</v>
+      </c>
+      <c r="E25" t="str">
+        <f>RIGHT(LEFT($A25,SUM($B$24:E$24)),E$24)</f>
+        <v>1</v>
+      </c>
+      <c r="F25" t="str">
+        <f>RIGHT(LEFT($A25,SUM($B$24:F$24)),F$24)</f>
+        <v xml:space="preserve">XXXXX               XXXXX               XXXXX               </v>
+      </c>
+      <c r="G25" t="str">
+        <f>RIGHT(LEFT($A25,SUM($B$24:G$24)),G$24)</f>
+        <v>000000000181730</v>
+      </c>
+      <c r="H25" t="str">
+        <f>RIGHT(LEFT($A25,SUM($B$24:H$24)),H$24)</f>
+        <v>20210312</v>
+      </c>
+      <c r="I25" t="str">
+        <f>RIGHT(LEFT($A25,SUM($B$24:I$24)),I$24)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" t="str">
+        <f>RIGHT(LEFT($A25,SUM($B$24:J$24)),J$24)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="K25" t="str">
+        <f>RIGHT(LEFT($A25,SUM($B$24:K$24)),K$24)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="L25" t="str">
+        <f>RIGHT(LEFT($A25,SUM($B$24:L$24)),L$24)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="M25" t="str">
+        <f>RIGHT(LEFT($A25,SUM($B$24:M$24)),M$24)</f>
+        <v>00068385520</v>
+      </c>
+      <c r="N25" t="str">
+        <f>RIGHT(LEFT($A25,SUM($B$24:N$24)),N$24)</f>
+        <v>407582210310</v>
+      </c>
+      <c r="O25" t="str">
+        <f>RIGHT(LEFT($A25,SUM($B$24:O$24)),O$24)</f>
+        <v>000000000125252</v>
+      </c>
+      <c r="P25" t="str">
+        <f>RIGHT(LEFT($A25,SUM($B$24:P$24)),P$24)</f>
+        <v>000000000056058</v>
+      </c>
+      <c r="Q25" t="str">
+        <f>RIGHT(LEFT($A25,SUM($B$24:Q$24)),Q$24)</f>
+        <v>000000000000420</v>
+      </c>
+      <c r="R25" t="str">
+        <f>RIGHT(LEFT($A25,SUM($B$24:R$24)),R$24)</f>
+        <v>000000000000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K22" t="s">
-        <v>56</v>
-      </c>
-      <c r="L22" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" t="s">
-        <v>59</v>
-      </c>
-      <c r="N22" t="s">
-        <v>61</v>
-      </c>
-      <c r="O22" t="s">
-        <v>63</v>
-      </c>
-      <c r="P22" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>66</v>
-      </c>
-      <c r="R22" t="s">
-        <v>67</v>
-      </c>
-      <c r="S22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2">
-        <v>4</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="B26" t="str">
+        <f t="shared" ref="B26:B44" si="0">LEFT($A26,B$24)</f>
+        <v>020120145174</v>
+      </c>
+      <c r="C26" t="str">
+        <f>RIGHT(LEFT($A26,SUM($B$24:C$24)),C$24)</f>
+        <v>0039</v>
+      </c>
+      <c r="D26" t="str">
+        <f>RIGHT(LEFT($A26,SUM($B$24:D$24)),D$24)</f>
+        <v>01</v>
+      </c>
+      <c r="E26" t="str">
+        <f>RIGHT(LEFT($A26,SUM($B$24:E$24)),E$24)</f>
         <v>1</v>
       </c>
-      <c r="F23" s="8">
-        <v>60</v>
-      </c>
-      <c r="G23" s="4">
-        <v>15</v>
-      </c>
-      <c r="H23" s="4">
-        <v>8</v>
-      </c>
-      <c r="I23" s="4">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2">
-        <v>15</v>
-      </c>
-      <c r="K23">
-        <v>15</v>
-      </c>
-      <c r="L23">
-        <v>15</v>
-      </c>
-      <c r="M23">
-        <v>11</v>
-      </c>
-      <c r="N23">
-        <v>12</v>
-      </c>
-      <c r="O23">
-        <v>15</v>
-      </c>
-      <c r="P23">
-        <v>15</v>
-      </c>
-      <c r="Q23">
-        <v>15</v>
-      </c>
-      <c r="R23">
-        <v>15</v>
-      </c>
-      <c r="S23">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="F26" t="str">
+        <f>RIGHT(LEFT($A26,SUM($B$24:F$24)),F$24)</f>
+        <v xml:space="preserve">XXXXX                                                       </v>
+      </c>
+      <c r="G26" t="str">
+        <f>RIGHT(LEFT($A26,SUM($B$24:G$24)),G$24)</f>
+        <v>000000038257589</v>
+      </c>
+      <c r="H26" t="str">
+        <f>RIGHT(LEFT($A26,SUM($B$24:H$24)),H$24)</f>
+        <v>20210312</v>
+      </c>
+      <c r="I26" t="str">
+        <f>RIGHT(LEFT($A26,SUM($B$24:I$24)),I$24)</f>
         <v>0</v>
       </c>
-      <c r="B24" t="str">
-        <f>LEFT($A24,B$23)</f>
-        <v xml:space="preserve">20000105428 </v>
-      </c>
-      <c r="C24" t="str">
-        <f>RIGHT(LEFT($A24,SUM($B$23:C$23)),C$23)</f>
-        <v>0009</v>
-      </c>
-      <c r="D24" t="str">
-        <f>RIGHT(LEFT($A24,SUM($B$23:D$23)),D$23)</f>
-        <v>01</v>
-      </c>
-      <c r="E24" t="str">
-        <f>RIGHT(LEFT($A24,SUM($B$23:E$23)),E$23)</f>
-        <v>2</v>
-      </c>
-      <c r="F24" t="str">
-        <f>RIGHT(LEFT($A24,SUM($B$23:F$23)),F$23)</f>
-        <v xml:space="preserve">XXXXX               XXXXX               XXXXX               </v>
-      </c>
-      <c r="G24" t="str">
-        <f>RIGHT(LEFT($A24,SUM($B$23:G$23)),G$23)</f>
-        <v>000000441688459</v>
-      </c>
-      <c r="H24" t="str">
-        <f>RIGHT(LEFT($A24,SUM($B$23:H$23)),H$23)</f>
-        <v>20031212</v>
-      </c>
-      <c r="I24" t="str">
-        <f>RIGHT(LEFT($A24,SUM($B$23:I$23)),I$23)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" t="str">
-        <f>RIGHT(LEFT($A24,SUM($B$23:J$23)),J$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="K24" t="str">
-        <f>RIGHT(LEFT($A24,SUM($B$23:K$23)),K$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="L24" t="str">
-        <f>RIGHT(LEFT($A24,SUM($B$23:L$23)),L$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="M24" t="str">
-        <f>RIGHT(LEFT($A24,SUM($B$23:M$23)),M$23)</f>
-        <v>06068002786</v>
-      </c>
-      <c r="N24" t="str">
-        <f>RIGHT(LEFT($A24,SUM($B$23:N$23)),N$23)</f>
-        <v>ATR-20210226</v>
-      </c>
-      <c r="O24" t="str">
-        <f>RIGHT(LEFT($A24,SUM($B$23:O$23)),O$23)</f>
-        <v>000000441688459</v>
-      </c>
-      <c r="P24" t="str">
-        <f>RIGHT(LEFT($A24,SUM($B$23:P$23)),P$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="Q24" t="str">
-        <f>RIGHT(LEFT($A24,SUM($B$23:Q$23)),Q$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="R24" t="str">
-        <f>RIGHT(LEFT($A24,SUM($B$23:R$23)),R$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="S24" t="str">
-        <f>RIGHT(LEFT($A24,SUM($B$23:S$23)),S$23)</f>
-        <v xml:space="preserve">000000000000000000000000000000000000000000000000 </v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" ref="B25:B43" si="0">LEFT($A25,B$23)</f>
-        <v xml:space="preserve">20000122752 </v>
-      </c>
-      <c r="C25" t="str">
-        <f>RIGHT(LEFT($A25,SUM($B$23:C$23)),C$23)</f>
-        <v>0009</v>
-      </c>
-      <c r="D25" t="str">
-        <f>RIGHT(LEFT($A25,SUM($B$23:D$23)),D$23)</f>
-        <v>01</v>
-      </c>
-      <c r="E25" t="str">
-        <f>RIGHT(LEFT($A25,SUM($B$23:E$23)),E$23)</f>
-        <v>2</v>
-      </c>
-      <c r="F25" t="str">
-        <f>RIGHT(LEFT($A25,SUM($B$23:F$23)),F$23)</f>
-        <v xml:space="preserve">XXXXX               XXXXX               XXXXX               </v>
-      </c>
-      <c r="G25" t="str">
-        <f>RIGHT(LEFT($A25,SUM($B$23:G$23)),G$23)</f>
-        <v>000000457867728</v>
-      </c>
-      <c r="H25" t="str">
-        <f>RIGHT(LEFT($A25,SUM($B$23:H$23)),H$23)</f>
-        <v>20031130</v>
-      </c>
-      <c r="I25" t="str">
-        <f>RIGHT(LEFT($A25,SUM($B$23:I$23)),I$23)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" t="str">
-        <f>RIGHT(LEFT($A25,SUM($B$23:J$23)),J$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="K25" t="str">
-        <f>RIGHT(LEFT($A25,SUM($B$23:K$23)),K$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="L25" t="str">
-        <f>RIGHT(LEFT($A25,SUM($B$23:L$23)),L$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="M25" t="str">
-        <f>RIGHT(LEFT($A25,SUM($B$23:M$23)),M$23)</f>
-        <v>06068002786</v>
-      </c>
-      <c r="N25" t="str">
-        <f>RIGHT(LEFT($A25,SUM($B$23:N$23)),N$23)</f>
-        <v>ATR-20210226</v>
-      </c>
-      <c r="O25" t="str">
-        <f>RIGHT(LEFT($A25,SUM($B$23:O$23)),O$23)</f>
-        <v>000000457867728</v>
-      </c>
-      <c r="P25" t="str">
-        <f>RIGHT(LEFT($A25,SUM($B$23:P$23)),P$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="Q25" t="str">
-        <f>RIGHT(LEFT($A25,SUM($B$23:Q$23)),Q$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="R25" t="str">
-        <f>RIGHT(LEFT($A25,SUM($B$23:R$23)),R$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="S25" t="str">
-        <f>RIGHT(LEFT($A25,SUM($B$23:S$23)),S$23)</f>
-        <v xml:space="preserve">000000000000000000000000000000000000000000000000 </v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">20020126391 </v>
-      </c>
-      <c r="C26" t="str">
-        <f>RIGHT(LEFT($A26,SUM($B$23:C$23)),C$23)</f>
-        <v>0060</v>
-      </c>
-      <c r="D26" t="str">
-        <f>RIGHT(LEFT($A26,SUM($B$23:D$23)),D$23)</f>
-        <v>01</v>
-      </c>
-      <c r="E26" t="str">
-        <f>RIGHT(LEFT($A26,SUM($B$23:E$23)),E$23)</f>
-        <v>2</v>
-      </c>
-      <c r="F26" t="str">
-        <f>RIGHT(LEFT($A26,SUM($B$23:F$23)),F$23)</f>
-        <v xml:space="preserve">XXXXX                                                       </v>
-      </c>
-      <c r="G26" t="str">
-        <f>RIGHT(LEFT($A26,SUM($B$23:G$23)),G$23)</f>
-        <v>000000016410249</v>
-      </c>
-      <c r="H26" t="str">
-        <f>RIGHT(LEFT($A26,SUM($B$23:H$23)),H$23)</f>
-        <v>20080222</v>
-      </c>
-      <c r="I26" t="str">
-        <f>RIGHT(LEFT($A26,SUM($B$23:I$23)),I$23)</f>
-        <v>0</v>
-      </c>
       <c r="J26" t="str">
-        <f>RIGHT(LEFT($A26,SUM($B$23:J$23)),J$23)</f>
+        <f>RIGHT(LEFT($A26,SUM($B$24:J$24)),J$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="K26" t="str">
-        <f>RIGHT(LEFT($A26,SUM($B$23:K$23)),K$23)</f>
+        <f>RIGHT(LEFT($A26,SUM($B$24:K$24)),K$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="L26" t="str">
-        <f>RIGHT(LEFT($A26,SUM($B$23:L$23)),L$23)</f>
+        <f>RIGHT(LEFT($A26,SUM($B$24:L$24)),L$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="M26" t="str">
-        <f>RIGHT(LEFT($A26,SUM($B$23:M$23)),M$23)</f>
-        <v>06068002786</v>
+        <f>RIGHT(LEFT($A26,SUM($B$24:M$24)),M$24)</f>
+        <v>00068385520</v>
       </c>
       <c r="N26" t="str">
-        <f>RIGHT(LEFT($A26,SUM($B$23:N$23)),N$23)</f>
-        <v>ATR-20210226</v>
+        <f>RIGHT(LEFT($A26,SUM($B$24:N$24)),N$24)</f>
+        <v>451742210310</v>
       </c>
       <c r="O26" t="str">
-        <f>RIGHT(LEFT($A26,SUM($B$23:O$23)),O$23)</f>
-        <v>000000016410249</v>
+        <f>RIGHT(LEFT($A26,SUM($B$24:O$24)),O$24)</f>
+        <v>000000008076716</v>
       </c>
       <c r="P26" t="str">
-        <f>RIGHT(LEFT($A26,SUM($B$23:P$23)),P$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A26,SUM($B$24:P$24)),P$24)</f>
+        <v>000000016367175</v>
       </c>
       <c r="Q26" t="str">
-        <f>RIGHT(LEFT($A26,SUM($B$23:Q$23)),Q$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A26,SUM($B$24:Q$24)),Q$24)</f>
+        <v>000000013813698</v>
       </c>
       <c r="R26" t="str">
-        <f>RIGHT(LEFT($A26,SUM($B$23:R$23)),R$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="S26" t="str">
-        <f>RIGHT(LEFT($A26,SUM($B$23:S$23)),S$23)</f>
-        <v xml:space="preserve">000000000000000000000000000000000000000000000000 </v>
+        <f>RIGHT(LEFT($A26,SUM($B$24:R$24)),R$24)</f>
+        <v>000000000000000</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>3</v>
+      <c r="A27" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">20030126060 </v>
+        <v>020140115067</v>
       </c>
       <c r="C27" t="str">
-        <f>RIGHT(LEFT($A27,SUM($B$23:C$23)),C$23)</f>
-        <v>0016</v>
+        <f>RIGHT(LEFT($A27,SUM($B$24:C$24)),C$24)</f>
+        <v>0077</v>
       </c>
       <c r="D27" t="str">
-        <f>RIGHT(LEFT($A27,SUM($B$23:D$23)),D$23)</f>
+        <f>RIGHT(LEFT($A27,SUM($B$24:D$24)),D$24)</f>
         <v>01</v>
       </c>
       <c r="E27" t="str">
-        <f>RIGHT(LEFT($A27,SUM($B$23:E$23)),E$23)</f>
-        <v>2</v>
+        <f>RIGHT(LEFT($A27,SUM($B$24:E$24)),E$24)</f>
+        <v>1</v>
       </c>
       <c r="F27" t="str">
-        <f>RIGHT(LEFT($A27,SUM($B$23:F$23)),F$23)</f>
+        <f>RIGHT(LEFT($A27,SUM($B$24:F$24)),F$24)</f>
         <v xml:space="preserve">XXXXX               XXXXX               XXXXX               </v>
       </c>
       <c r="G27" t="str">
-        <f>RIGHT(LEFT($A27,SUM($B$23:G$23)),G$23)</f>
-        <v>000000066509697</v>
+        <f>RIGHT(LEFT($A27,SUM($B$24:G$24)),G$24)</f>
+        <v>000000001958484</v>
       </c>
       <c r="H27" t="str">
-        <f>RIGHT(LEFT($A27,SUM($B$23:H$23)),H$23)</f>
-        <v>20100402</v>
+        <f>RIGHT(LEFT($A27,SUM($B$24:H$24)),H$24)</f>
+        <v>20210312</v>
       </c>
       <c r="I27" t="str">
-        <f>RIGHT(LEFT($A27,SUM($B$23:I$23)),I$23)</f>
+        <f>RIGHT(LEFT($A27,SUM($B$24:I$24)),I$24)</f>
         <v>0</v>
       </c>
       <c r="J27" t="str">
-        <f>RIGHT(LEFT($A27,SUM($B$23:J$23)),J$23)</f>
+        <f>RIGHT(LEFT($A27,SUM($B$24:J$24)),J$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="K27" t="str">
-        <f>RIGHT(LEFT($A27,SUM($B$23:K$23)),K$23)</f>
+        <f>RIGHT(LEFT($A27,SUM($B$24:K$24)),K$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="L27" t="str">
-        <f>RIGHT(LEFT($A27,SUM($B$23:L$23)),L$23)</f>
+        <f>RIGHT(LEFT($A27,SUM($B$24:L$24)),L$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="M27" t="str">
-        <f>RIGHT(LEFT($A27,SUM($B$23:M$23)),M$23)</f>
-        <v>06068002786</v>
+        <f>RIGHT(LEFT($A27,SUM($B$24:M$24)),M$24)</f>
+        <v>00068385520</v>
       </c>
       <c r="N27" t="str">
-        <f>RIGHT(LEFT($A27,SUM($B$23:N$23)),N$23)</f>
-        <v>ATR-20210226</v>
+        <f>RIGHT(LEFT($A27,SUM($B$24:N$24)),N$24)</f>
+        <v>150672210310</v>
       </c>
       <c r="O27" t="str">
-        <f>RIGHT(LEFT($A27,SUM($B$23:O$23)),O$23)</f>
-        <v>000000066509697</v>
+        <f>RIGHT(LEFT($A27,SUM($B$24:O$24)),O$24)</f>
+        <v>000000001654140</v>
       </c>
       <c r="P27" t="str">
-        <f>RIGHT(LEFT($A27,SUM($B$23:P$23)),P$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A27,SUM($B$24:P$24)),P$24)</f>
+        <v>000000000247568</v>
       </c>
       <c r="Q27" t="str">
-        <f>RIGHT(LEFT($A27,SUM($B$23:Q$23)),Q$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A27,SUM($B$24:Q$24)),Q$24)</f>
+        <v>000000000056776</v>
       </c>
       <c r="R27" t="str">
-        <f>RIGHT(LEFT($A27,SUM($B$23:R$23)),R$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="S27" t="str">
-        <f>RIGHT(LEFT($A27,SUM($B$23:S$23)),S$23)</f>
-        <v xml:space="preserve">000000000000000000000000000000000000000000000000 </v>
+        <f>RIGHT(LEFT($A27,SUM($B$24:R$24)),R$24)</f>
+        <v>000000000000000</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
+      <c r="A28" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">20030126214 </v>
+        <v>020140146613</v>
       </c>
       <c r="C28" t="str">
-        <f>RIGHT(LEFT($A28,SUM($B$23:C$23)),C$23)</f>
-        <v>0001</v>
+        <f>RIGHT(LEFT($A28,SUM($B$24:C$24)),C$24)</f>
+        <v>0065</v>
       </c>
       <c r="D28" t="str">
-        <f>RIGHT(LEFT($A28,SUM($B$23:D$23)),D$23)</f>
+        <f>RIGHT(LEFT($A28,SUM($B$24:D$24)),D$24)</f>
         <v>01</v>
       </c>
       <c r="E28" t="str">
-        <f>RIGHT(LEFT($A28,SUM($B$23:E$23)),E$23)</f>
-        <v>2</v>
+        <f>RIGHT(LEFT($A28,SUM($B$24:E$24)),E$24)</f>
+        <v>1</v>
       </c>
       <c r="F28" t="str">
-        <f>RIGHT(LEFT($A28,SUM($B$23:F$23)),F$23)</f>
+        <f>RIGHT(LEFT($A28,SUM($B$24:F$24)),F$24)</f>
         <v xml:space="preserve">XXXXX                                                       </v>
       </c>
       <c r="G28" t="str">
-        <f>RIGHT(LEFT($A28,SUM($B$23:G$23)),G$23)</f>
-        <v>000000198717448</v>
+        <f>RIGHT(LEFT($A28,SUM($B$24:G$24)),G$24)</f>
+        <v>000000000111172</v>
       </c>
       <c r="H28" t="str">
-        <f>RIGHT(LEFT($A28,SUM($B$23:H$23)),H$23)</f>
-        <v>20100716</v>
+        <f>RIGHT(LEFT($A28,SUM($B$24:H$24)),H$24)</f>
+        <v>20210312</v>
       </c>
       <c r="I28" t="str">
-        <f>RIGHT(LEFT($A28,SUM($B$23:I$23)),I$23)</f>
+        <f>RIGHT(LEFT($A28,SUM($B$24:I$24)),I$24)</f>
         <v>0</v>
       </c>
       <c r="J28" t="str">
-        <f>RIGHT(LEFT($A28,SUM($B$23:J$23)),J$23)</f>
+        <f>RIGHT(LEFT($A28,SUM($B$24:J$24)),J$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="K28" t="str">
-        <f>RIGHT(LEFT($A28,SUM($B$23:K$23)),K$23)</f>
+        <f>RIGHT(LEFT($A28,SUM($B$24:K$24)),K$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="L28" t="str">
-        <f>RIGHT(LEFT($A28,SUM($B$23:L$23)),L$23)</f>
+        <f>RIGHT(LEFT($A28,SUM($B$24:L$24)),L$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="M28" t="str">
-        <f>RIGHT(LEFT($A28,SUM($B$23:M$23)),M$23)</f>
-        <v>06068002786</v>
+        <f>RIGHT(LEFT($A28,SUM($B$24:M$24)),M$24)</f>
+        <v>00068385520</v>
       </c>
       <c r="N28" t="str">
-        <f>RIGHT(LEFT($A28,SUM($B$23:N$23)),N$23)</f>
-        <v>ATR-20210226</v>
+        <f>RIGHT(LEFT($A28,SUM($B$24:N$24)),N$24)</f>
+        <v>466132210310</v>
       </c>
       <c r="O28" t="str">
-        <f>RIGHT(LEFT($A28,SUM($B$23:O$23)),O$23)</f>
-        <v>000000198717448</v>
+        <f>RIGHT(LEFT($A28,SUM($B$24:O$24)),O$24)</f>
+        <v>000000000052822</v>
       </c>
       <c r="P28" t="str">
-        <f>RIGHT(LEFT($A28,SUM($B$23:P$23)),P$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A28,SUM($B$24:P$24)),P$24)</f>
+        <v>000000000057843</v>
       </c>
       <c r="Q28" t="str">
-        <f>RIGHT(LEFT($A28,SUM($B$23:Q$23)),Q$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A28,SUM($B$24:Q$24)),Q$24)</f>
+        <v>000000000000507</v>
       </c>
       <c r="R28" t="str">
-        <f>RIGHT(LEFT($A28,SUM($B$23:R$23)),R$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="S28" t="str">
-        <f>RIGHT(LEFT($A28,SUM($B$23:S$23)),S$23)</f>
-        <v xml:space="preserve">000000000000000000000000000000000000000000000000 </v>
+        <f>RIGHT(LEFT($A28,SUM($B$24:R$24)),R$24)</f>
+        <v>000000000000000</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>5</v>
+      <c r="A29" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">20030126636 </v>
+        <v>020150158209</v>
       </c>
       <c r="C29" t="str">
-        <f>RIGHT(LEFT($A29,SUM($B$23:C$23)),C$23)</f>
-        <v>0016</v>
+        <f>RIGHT(LEFT($A29,SUM($B$24:C$24)),C$24)</f>
+        <v>0048</v>
       </c>
       <c r="D29" t="str">
-        <f>RIGHT(LEFT($A29,SUM($B$23:D$23)),D$23)</f>
+        <f>RIGHT(LEFT($A29,SUM($B$24:D$24)),D$24)</f>
         <v>01</v>
       </c>
       <c r="E29" t="str">
-        <f>RIGHT(LEFT($A29,SUM($B$23:E$23)),E$23)</f>
-        <v>2</v>
+        <f>RIGHT(LEFT($A29,SUM($B$24:E$24)),E$24)</f>
+        <v>1</v>
       </c>
       <c r="F29" t="str">
-        <f>RIGHT(LEFT($A29,SUM($B$23:F$23)),F$23)</f>
+        <f>RIGHT(LEFT($A29,SUM($B$24:F$24)),F$24)</f>
         <v xml:space="preserve">XXXXX               XXXXX               XXXXX               </v>
       </c>
       <c r="G29" t="str">
-        <f>RIGHT(LEFT($A29,SUM($B$23:G$23)),G$23)</f>
-        <v>000000066509686</v>
+        <f>RIGHT(LEFT($A29,SUM($B$24:G$24)),G$24)</f>
+        <v>000000001222765</v>
       </c>
       <c r="H29" t="str">
-        <f>RIGHT(LEFT($A29,SUM($B$23:H$23)),H$23)</f>
-        <v>20100301</v>
+        <f>RIGHT(LEFT($A29,SUM($B$24:H$24)),H$24)</f>
+        <v>20210312</v>
       </c>
       <c r="I29" t="str">
-        <f>RIGHT(LEFT($A29,SUM($B$23:I$23)),I$23)</f>
+        <f>RIGHT(LEFT($A29,SUM($B$24:I$24)),I$24)</f>
         <v>0</v>
       </c>
       <c r="J29" t="str">
-        <f>RIGHT(LEFT($A29,SUM($B$23:J$23)),J$23)</f>
+        <f>RIGHT(LEFT($A29,SUM($B$24:J$24)),J$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="K29" t="str">
-        <f>RIGHT(LEFT($A29,SUM($B$23:K$23)),K$23)</f>
+        <f>RIGHT(LEFT($A29,SUM($B$24:K$24)),K$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="L29" t="str">
-        <f>RIGHT(LEFT($A29,SUM($B$23:L$23)),L$23)</f>
+        <f>RIGHT(LEFT($A29,SUM($B$24:L$24)),L$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="M29" t="str">
-        <f>RIGHT(LEFT($A29,SUM($B$23:M$23)),M$23)</f>
-        <v>06068002786</v>
+        <f>RIGHT(LEFT($A29,SUM($B$24:M$24)),M$24)</f>
+        <v>00068385520</v>
       </c>
       <c r="N29" t="str">
-        <f>RIGHT(LEFT($A29,SUM($B$23:N$23)),N$23)</f>
-        <v>ATR-20210226</v>
+        <f>RIGHT(LEFT($A29,SUM($B$24:N$24)),N$24)</f>
+        <v>582092210310</v>
       </c>
       <c r="O29" t="str">
-        <f>RIGHT(LEFT($A29,SUM($B$23:O$23)),O$23)</f>
-        <v>000000066509686</v>
+        <f>RIGHT(LEFT($A29,SUM($B$24:O$24)),O$24)</f>
+        <v>000000001128090</v>
       </c>
       <c r="P29" t="str">
-        <f>RIGHT(LEFT($A29,SUM($B$23:P$23)),P$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A29,SUM($B$24:P$24)),P$24)</f>
+        <v>000000000031612</v>
       </c>
       <c r="Q29" t="str">
-        <f>RIGHT(LEFT($A29,SUM($B$23:Q$23)),Q$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A29,SUM($B$24:Q$24)),Q$24)</f>
+        <v>000000000063063</v>
       </c>
       <c r="R29" t="str">
-        <f>RIGHT(LEFT($A29,SUM($B$23:R$23)),R$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="S29" t="str">
-        <f>RIGHT(LEFT($A29,SUM($B$23:S$23)),S$23)</f>
-        <v xml:space="preserve">000000000000000000000000000000000000000000000000 </v>
+        <f>RIGHT(LEFT($A29,SUM($B$24:R$24)),R$24)</f>
+        <v>000000000000000</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>6</v>
+      <c r="A30" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">20040126633 </v>
+        <v>020150159427</v>
       </c>
       <c r="C30" t="str">
-        <f>RIGHT(LEFT($A30,SUM($B$23:C$23)),C$23)</f>
-        <v>0001</v>
+        <f>RIGHT(LEFT($A30,SUM($B$24:C$24)),C$24)</f>
+        <v>0048</v>
       </c>
       <c r="D30" t="str">
-        <f>RIGHT(LEFT($A30,SUM($B$23:D$23)),D$23)</f>
+        <f>RIGHT(LEFT($A30,SUM($B$24:D$24)),D$24)</f>
         <v>01</v>
       </c>
       <c r="E30" t="str">
-        <f>RIGHT(LEFT($A30,SUM($B$23:E$23)),E$23)</f>
-        <v>2</v>
+        <f>RIGHT(LEFT($A30,SUM($B$24:E$24)),E$24)</f>
+        <v>1</v>
       </c>
       <c r="F30" t="str">
-        <f>RIGHT(LEFT($A30,SUM($B$23:F$23)),F$23)</f>
+        <f>RIGHT(LEFT($A30,SUM($B$24:F$24)),F$24)</f>
         <v xml:space="preserve">XXXXX               XXXXX               XXXXX               </v>
       </c>
       <c r="G30" t="str">
-        <f>RIGHT(LEFT($A30,SUM($B$23:G$23)),G$23)</f>
-        <v>000000003014939</v>
+        <f>RIGHT(LEFT($A30,SUM($B$24:G$24)),G$24)</f>
+        <v>000000000715221</v>
       </c>
       <c r="H30" t="str">
-        <f>RIGHT(LEFT($A30,SUM($B$23:H$23)),H$23)</f>
-        <v>20120519</v>
+        <f>RIGHT(LEFT($A30,SUM($B$24:H$24)),H$24)</f>
+        <v>20210312</v>
       </c>
       <c r="I30" t="str">
-        <f>RIGHT(LEFT($A30,SUM($B$23:I$23)),I$23)</f>
+        <f>RIGHT(LEFT($A30,SUM($B$24:I$24)),I$24)</f>
         <v>0</v>
       </c>
       <c r="J30" t="str">
-        <f>RIGHT(LEFT($A30,SUM($B$23:J$23)),J$23)</f>
+        <f>RIGHT(LEFT($A30,SUM($B$24:J$24)),J$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="K30" t="str">
-        <f>RIGHT(LEFT($A30,SUM($B$23:K$23)),K$23)</f>
+        <f>RIGHT(LEFT($A30,SUM($B$24:K$24)),K$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="L30" t="str">
-        <f>RIGHT(LEFT($A30,SUM($B$23:L$23)),L$23)</f>
+        <f>RIGHT(LEFT($A30,SUM($B$24:L$24)),L$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="M30" t="str">
-        <f>RIGHT(LEFT($A30,SUM($B$23:M$23)),M$23)</f>
-        <v>06068002786</v>
+        <f>RIGHT(LEFT($A30,SUM($B$24:M$24)),M$24)</f>
+        <v>00068385520</v>
       </c>
       <c r="N30" t="str">
-        <f>RIGHT(LEFT($A30,SUM($B$23:N$23)),N$23)</f>
-        <v>ATR-20210226</v>
+        <f>RIGHT(LEFT($A30,SUM($B$24:N$24)),N$24)</f>
+        <v>594272210310</v>
       </c>
       <c r="O30" t="str">
-        <f>RIGHT(LEFT($A30,SUM($B$23:O$23)),O$23)</f>
-        <v>000000003014939</v>
+        <f>RIGHT(LEFT($A30,SUM($B$24:O$24)),O$24)</f>
+        <v>000000000659050</v>
       </c>
       <c r="P30" t="str">
-        <f>RIGHT(LEFT($A30,SUM($B$23:P$23)),P$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A30,SUM($B$24:P$24)),P$24)</f>
+        <v>000000000018749</v>
       </c>
       <c r="Q30" t="str">
-        <f>RIGHT(LEFT($A30,SUM($B$23:Q$23)),Q$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A30,SUM($B$24:Q$24)),Q$24)</f>
+        <v>000000000037422</v>
       </c>
       <c r="R30" t="str">
-        <f>RIGHT(LEFT($A30,SUM($B$23:R$23)),R$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="S30" t="str">
-        <f>RIGHT(LEFT($A30,SUM($B$23:S$23)),S$23)</f>
-        <v xml:space="preserve">000000000000000000000000000000000000000000000000 </v>
+        <f>RIGHT(LEFT($A30,SUM($B$24:R$24)),R$24)</f>
+        <v>000000000000000</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>7</v>
+      <c r="A31" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">20040126713 </v>
+        <v>020150161871</v>
       </c>
       <c r="C31" t="str">
-        <f>RIGHT(LEFT($A31,SUM($B$23:C$23)),C$23)</f>
-        <v>0040</v>
+        <f>RIGHT(LEFT($A31,SUM($B$24:C$24)),C$24)</f>
+        <v>0048</v>
       </c>
       <c r="D31" t="str">
-        <f>RIGHT(LEFT($A31,SUM($B$23:D$23)),D$23)</f>
+        <f>RIGHT(LEFT($A31,SUM($B$24:D$24)),D$24)</f>
         <v>01</v>
       </c>
       <c r="E31" t="str">
-        <f>RIGHT(LEFT($A31,SUM($B$23:E$23)),E$23)</f>
-        <v>2</v>
+        <f>RIGHT(LEFT($A31,SUM($B$24:E$24)),E$24)</f>
+        <v>1</v>
       </c>
       <c r="F31" t="str">
-        <f>RIGHT(LEFT($A31,SUM($B$23:F$23)),F$23)</f>
+        <f>RIGHT(LEFT($A31,SUM($B$24:F$24)),F$24)</f>
         <v xml:space="preserve">XXXXX               XXXXX               XXXXX               </v>
       </c>
       <c r="G31" t="str">
-        <f>RIGHT(LEFT($A31,SUM($B$23:G$23)),G$23)</f>
-        <v>000000021334809</v>
+        <f>RIGHT(LEFT($A31,SUM($B$24:G$24)),G$24)</f>
+        <v>000000001208541</v>
       </c>
       <c r="H31" t="str">
-        <f>RIGHT(LEFT($A31,SUM($B$23:H$23)),H$23)</f>
-        <v>20080609</v>
+        <f>RIGHT(LEFT($A31,SUM($B$24:H$24)),H$24)</f>
+        <v>20210312</v>
       </c>
       <c r="I31" t="str">
-        <f>RIGHT(LEFT($A31,SUM($B$23:I$23)),I$23)</f>
+        <f>RIGHT(LEFT($A31,SUM($B$24:I$24)),I$24)</f>
         <v>0</v>
       </c>
       <c r="J31" t="str">
-        <f>RIGHT(LEFT($A31,SUM($B$23:J$23)),J$23)</f>
+        <f>RIGHT(LEFT($A31,SUM($B$24:J$24)),J$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="K31" t="str">
-        <f>RIGHT(LEFT($A31,SUM($B$23:K$23)),K$23)</f>
+        <f>RIGHT(LEFT($A31,SUM($B$24:K$24)),K$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="L31" t="str">
-        <f>RIGHT(LEFT($A31,SUM($B$23:L$23)),L$23)</f>
+        <f>RIGHT(LEFT($A31,SUM($B$24:L$24)),L$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="M31" t="str">
-        <f>RIGHT(LEFT($A31,SUM($B$23:M$23)),M$23)</f>
-        <v>06068002786</v>
+        <f>RIGHT(LEFT($A31,SUM($B$24:M$24)),M$24)</f>
+        <v>00068385520</v>
       </c>
       <c r="N31" t="str">
-        <f>RIGHT(LEFT($A31,SUM($B$23:N$23)),N$23)</f>
-        <v>ATR-20210226</v>
+        <f>RIGHT(LEFT($A31,SUM($B$24:N$24)),N$24)</f>
+        <v>618712210310</v>
       </c>
       <c r="O31" t="str">
-        <f>RIGHT(LEFT($A31,SUM($B$23:O$23)),O$23)</f>
-        <v>000000021334809</v>
+        <f>RIGHT(LEFT($A31,SUM($B$24:O$24)),O$24)</f>
+        <v>000000001111740</v>
       </c>
       <c r="P31" t="str">
-        <f>RIGHT(LEFT($A31,SUM($B$23:P$23)),P$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A31,SUM($B$24:P$24)),P$24)</f>
+        <v>000000000033738</v>
       </c>
       <c r="Q31" t="str">
-        <f>RIGHT(LEFT($A31,SUM($B$23:Q$23)),Q$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A31,SUM($B$24:Q$24)),Q$24)</f>
+        <v>000000000063063</v>
       </c>
       <c r="R31" t="str">
-        <f>RIGHT(LEFT($A31,SUM($B$23:R$23)),R$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="S31" t="str">
-        <f>RIGHT(LEFT($A31,SUM($B$23:S$23)),S$23)</f>
-        <v xml:space="preserve">000000000000000000000000000000000000000000000000 </v>
+        <f>RIGHT(LEFT($A31,SUM($B$24:R$24)),R$24)</f>
+        <v>000000000000000</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>8</v>
+      <c r="A32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">20040127862 </v>
+        <v>020150163658</v>
       </c>
       <c r="C32" t="str">
-        <f>RIGHT(LEFT($A32,SUM($B$23:C$23)),C$23)</f>
-        <v>0049</v>
+        <f>RIGHT(LEFT($A32,SUM($B$24:C$24)),C$24)</f>
+        <v>0048</v>
       </c>
       <c r="D32" t="str">
-        <f>RIGHT(LEFT($A32,SUM($B$23:D$23)),D$23)</f>
+        <f>RIGHT(LEFT($A32,SUM($B$24:D$24)),D$24)</f>
         <v>01</v>
       </c>
       <c r="E32" t="str">
-        <f>RIGHT(LEFT($A32,SUM($B$23:E$23)),E$23)</f>
-        <v>2</v>
+        <f>RIGHT(LEFT($A32,SUM($B$24:E$24)),E$24)</f>
+        <v>1</v>
       </c>
       <c r="F32" t="str">
-        <f>RIGHT(LEFT($A32,SUM($B$23:F$23)),F$23)</f>
+        <f>RIGHT(LEFT($A32,SUM($B$24:F$24)),F$24)</f>
         <v xml:space="preserve">XXXXX               XXXXX               XXXXX               </v>
       </c>
       <c r="G32" t="str">
-        <f>RIGHT(LEFT($A32,SUM($B$23:G$23)),G$23)</f>
-        <v>000000010184156</v>
+        <f>RIGHT(LEFT($A32,SUM($B$24:G$24)),G$24)</f>
+        <v>000000000695236</v>
       </c>
       <c r="H32" t="str">
-        <f>RIGHT(LEFT($A32,SUM($B$23:H$23)),H$23)</f>
-        <v>20080402</v>
+        <f>RIGHT(LEFT($A32,SUM($B$24:H$24)),H$24)</f>
+        <v>20210312</v>
       </c>
       <c r="I32" t="str">
-        <f>RIGHT(LEFT($A32,SUM($B$23:I$23)),I$23)</f>
+        <f>RIGHT(LEFT($A32,SUM($B$24:I$24)),I$24)</f>
         <v>0</v>
       </c>
       <c r="J32" t="str">
-        <f>RIGHT(LEFT($A32,SUM($B$23:J$23)),J$23)</f>
+        <f>RIGHT(LEFT($A32,SUM($B$24:J$24)),J$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="K32" t="str">
-        <f>RIGHT(LEFT($A32,SUM($B$23:K$23)),K$23)</f>
+        <f>RIGHT(LEFT($A32,SUM($B$24:K$24)),K$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="L32" t="str">
-        <f>RIGHT(LEFT($A32,SUM($B$23:L$23)),L$23)</f>
+        <f>RIGHT(LEFT($A32,SUM($B$24:L$24)),L$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="M32" t="str">
-        <f>RIGHT(LEFT($A32,SUM($B$23:M$23)),M$23)</f>
-        <v>06068002786</v>
+        <f>RIGHT(LEFT($A32,SUM($B$24:M$24)),M$24)</f>
+        <v>00068385520</v>
       </c>
       <c r="N32" t="str">
-        <f>RIGHT(LEFT($A32,SUM($B$23:N$23)),N$23)</f>
-        <v>ATR-20210226</v>
+        <f>RIGHT(LEFT($A32,SUM($B$24:N$24)),N$24)</f>
+        <v>636582210310</v>
       </c>
       <c r="O32" t="str">
-        <f>RIGHT(LEFT($A32,SUM($B$23:O$23)),O$23)</f>
-        <v>000000010184156</v>
+        <f>RIGHT(LEFT($A32,SUM($B$24:O$24)),O$24)</f>
+        <v>000000000672493</v>
       </c>
       <c r="P32" t="str">
-        <f>RIGHT(LEFT($A32,SUM($B$23:P$23)),P$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A32,SUM($B$24:P$24)),P$24)</f>
+        <v>000000000006837</v>
       </c>
       <c r="Q32" t="str">
-        <f>RIGHT(LEFT($A32,SUM($B$23:Q$23)),Q$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A32,SUM($B$24:Q$24)),Q$24)</f>
+        <v>000000000015906</v>
       </c>
       <c r="R32" t="str">
-        <f>RIGHT(LEFT($A32,SUM($B$23:R$23)),R$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="S32" t="str">
-        <f>RIGHT(LEFT($A32,SUM($B$23:S$23)),S$23)</f>
-        <v xml:space="preserve">000000000000000000000000000000000000000000000000 </v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>9</v>
+        <f>RIGHT(LEFT($A32,SUM($B$24:R$24)),R$24)</f>
+        <v>000000000000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">20050130610 </v>
+        <v>020150163890</v>
       </c>
       <c r="C33" t="str">
-        <f>RIGHT(LEFT($A33,SUM($B$23:C$23)),C$23)</f>
-        <v>0036</v>
+        <f>RIGHT(LEFT($A33,SUM($B$24:C$24)),C$24)</f>
+        <v>0057</v>
       </c>
       <c r="D33" t="str">
-        <f>RIGHT(LEFT($A33,SUM($B$23:D$23)),D$23)</f>
+        <f>RIGHT(LEFT($A33,SUM($B$24:D$24)),D$24)</f>
         <v>01</v>
       </c>
       <c r="E33" t="str">
-        <f>RIGHT(LEFT($A33,SUM($B$23:E$23)),E$23)</f>
-        <v>2</v>
+        <f>RIGHT(LEFT($A33,SUM($B$24:E$24)),E$24)</f>
+        <v>1</v>
       </c>
       <c r="F33" t="str">
-        <f>RIGHT(LEFT($A33,SUM($B$23:F$23)),F$23)</f>
+        <f>RIGHT(LEFT($A33,SUM($B$24:F$24)),F$24)</f>
         <v xml:space="preserve">XXXXX               XXXXX               XXXXX               </v>
       </c>
       <c r="G33" t="str">
-        <f>RIGHT(LEFT($A33,SUM($B$23:G$23)),G$23)</f>
-        <v>000000008492529</v>
+        <f>RIGHT(LEFT($A33,SUM($B$24:G$24)),G$24)</f>
+        <v>000000000469924</v>
       </c>
       <c r="H33" t="str">
-        <f>RIGHT(LEFT($A33,SUM($B$23:H$23)),H$23)</f>
-        <v>20080813</v>
+        <f>RIGHT(LEFT($A33,SUM($B$24:H$24)),H$24)</f>
+        <v>20210312</v>
       </c>
       <c r="I33" t="str">
-        <f>RIGHT(LEFT($A33,SUM($B$23:I$23)),I$23)</f>
+        <f>RIGHT(LEFT($A33,SUM($B$24:I$24)),I$24)</f>
         <v>0</v>
       </c>
       <c r="J33" t="str">
-        <f>RIGHT(LEFT($A33,SUM($B$23:J$23)),J$23)</f>
+        <f>RIGHT(LEFT($A33,SUM($B$24:J$24)),J$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="K33" t="str">
-        <f>RIGHT(LEFT($A33,SUM($B$23:K$23)),K$23)</f>
+        <f>RIGHT(LEFT($A33,SUM($B$24:K$24)),K$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="L33" t="str">
-        <f>RIGHT(LEFT($A33,SUM($B$23:L$23)),L$23)</f>
+        <f>RIGHT(LEFT($A33,SUM($B$24:L$24)),L$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="M33" t="str">
-        <f>RIGHT(LEFT($A33,SUM($B$23:M$23)),M$23)</f>
-        <v>06068002786</v>
+        <f>RIGHT(LEFT($A33,SUM($B$24:M$24)),M$24)</f>
+        <v>00068385520</v>
       </c>
       <c r="N33" t="str">
-        <f>RIGHT(LEFT($A33,SUM($B$23:N$23)),N$23)</f>
-        <v>ATR-20210226</v>
+        <f>RIGHT(LEFT($A33,SUM($B$24:N$24)),N$24)</f>
+        <v>638902210310</v>
       </c>
       <c r="O33" t="str">
-        <f>RIGHT(LEFT($A33,SUM($B$23:O$23)),O$23)</f>
-        <v>000000008492529</v>
+        <f>RIGHT(LEFT($A33,SUM($B$24:O$24)),O$24)</f>
+        <v>000000000463395</v>
       </c>
       <c r="P33" t="str">
-        <f>RIGHT(LEFT($A33,SUM($B$23:P$23)),P$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A33,SUM($B$24:P$24)),P$24)</f>
+        <v>000000000004824</v>
       </c>
       <c r="Q33" t="str">
-        <f>RIGHT(LEFT($A33,SUM($B$23:Q$23)),Q$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A33,SUM($B$24:Q$24)),Q$24)</f>
+        <v>000000000001705</v>
       </c>
       <c r="R33" t="str">
-        <f>RIGHT(LEFT($A33,SUM($B$23:R$23)),R$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="S33" t="str">
-        <f>RIGHT(LEFT($A33,SUM($B$23:S$23)),S$23)</f>
-        <v xml:space="preserve">000000000000000000000000000000000000000000000000 </v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>10</v>
+        <f>RIGHT(LEFT($A33,SUM($B$24:R$24)),R$24)</f>
+        <v>000000000000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">20050167845 </v>
+        <v>020160117676</v>
       </c>
       <c r="C34" t="str">
-        <f>RIGHT(LEFT($A34,SUM($B$23:C$23)),C$23)</f>
-        <v>0191</v>
+        <f>RIGHT(LEFT($A34,SUM($B$24:C$24)),C$24)</f>
+        <v>0194</v>
       </c>
       <c r="D34" t="str">
-        <f>RIGHT(LEFT($A34,SUM($B$23:D$23)),D$23)</f>
+        <f>RIGHT(LEFT($A34,SUM($B$24:D$24)),D$24)</f>
         <v>01</v>
       </c>
       <c r="E34" t="str">
-        <f>RIGHT(LEFT($A34,SUM($B$23:E$23)),E$23)</f>
-        <v>2</v>
+        <f>RIGHT(LEFT($A34,SUM($B$24:E$24)),E$24)</f>
+        <v>1</v>
       </c>
       <c r="F34" t="str">
-        <f>RIGHT(LEFT($A34,SUM($B$23:F$23)),F$23)</f>
+        <f>RIGHT(LEFT($A34,SUM($B$24:F$24)),F$24)</f>
         <v xml:space="preserve">XXXXX               XXXXX               XXXXX               </v>
       </c>
       <c r="G34" t="str">
-        <f>RIGHT(LEFT($A34,SUM($B$23:G$23)),G$23)</f>
-        <v>000000000024246</v>
+        <f>RIGHT(LEFT($A34,SUM($B$24:G$24)),G$24)</f>
+        <v>000000000467942</v>
       </c>
       <c r="H34" t="str">
-        <f>RIGHT(LEFT($A34,SUM($B$23:H$23)),H$23)</f>
-        <v>20210216</v>
+        <f>RIGHT(LEFT($A34,SUM($B$24:H$24)),H$24)</f>
+        <v>20210312</v>
       </c>
       <c r="I34" t="str">
-        <f>RIGHT(LEFT($A34,SUM($B$23:I$23)),I$23)</f>
+        <f>RIGHT(LEFT($A34,SUM($B$24:I$24)),I$24)</f>
         <v>0</v>
       </c>
       <c r="J34" t="str">
-        <f>RIGHT(LEFT($A34,SUM($B$23:J$23)),J$23)</f>
+        <f>RIGHT(LEFT($A34,SUM($B$24:J$24)),J$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="K34" t="str">
-        <f>RIGHT(LEFT($A34,SUM($B$23:K$23)),K$23)</f>
+        <f>RIGHT(LEFT($A34,SUM($B$24:K$24)),K$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="L34" t="str">
-        <f>RIGHT(LEFT($A34,SUM($B$23:L$23)),L$23)</f>
+        <f>RIGHT(LEFT($A34,SUM($B$24:L$24)),L$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="M34" t="str">
-        <f>RIGHT(LEFT($A34,SUM($B$23:M$23)),M$23)</f>
-        <v>06068002786</v>
+        <f>RIGHT(LEFT($A34,SUM($B$24:M$24)),M$24)</f>
+        <v>00068385520</v>
       </c>
       <c r="N34" t="str">
-        <f>RIGHT(LEFT($A34,SUM($B$23:N$23)),N$23)</f>
-        <v>ATR-20210226</v>
+        <f>RIGHT(LEFT($A34,SUM($B$24:N$24)),N$24)</f>
+        <v>176762210310</v>
       </c>
       <c r="O34" t="str">
-        <f>RIGHT(LEFT($A34,SUM($B$23:O$23)),O$23)</f>
-        <v>000000000024246</v>
+        <f>RIGHT(LEFT($A34,SUM($B$24:O$24)),O$24)</f>
+        <v>000000000199695</v>
       </c>
       <c r="P34" t="str">
-        <f>RIGHT(LEFT($A34,SUM($B$23:P$23)),P$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A34,SUM($B$24:P$24)),P$24)</f>
+        <v>000000000267512</v>
       </c>
       <c r="Q34" t="str">
-        <f>RIGHT(LEFT($A34,SUM($B$23:Q$23)),Q$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A34,SUM($B$24:Q$24)),Q$24)</f>
+        <v>000000000000735</v>
       </c>
       <c r="R34" t="str">
-        <f>RIGHT(LEFT($A34,SUM($B$23:R$23)),R$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="S34" t="str">
-        <f>RIGHT(LEFT($A34,SUM($B$23:S$23)),S$23)</f>
-        <v xml:space="preserve">000000000000000000000000000000000000000000000000 </v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>11</v>
+        <f>RIGHT(LEFT($A34,SUM($B$24:R$24)),R$24)</f>
+        <v>000000000000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">20050167845 </v>
+        <v>020050167845</v>
       </c>
       <c r="C35" t="str">
-        <f>RIGHT(LEFT($A35,SUM($B$23:C$23)),C$23)</f>
-        <v>0192</v>
+        <f>RIGHT(LEFT($A35,SUM($B$24:C$24)),C$24)</f>
+        <v>0191</v>
       </c>
       <c r="D35" t="str">
-        <f>RIGHT(LEFT($A35,SUM($B$23:D$23)),D$23)</f>
+        <f>RIGHT(LEFT($A35,SUM($B$24:D$24)),D$24)</f>
         <v>01</v>
       </c>
       <c r="E35" t="str">
-        <f>RIGHT(LEFT($A35,SUM($B$23:E$23)),E$23)</f>
+        <f>RIGHT(LEFT($A35,SUM($B$24:E$24)),E$24)</f>
         <v>2</v>
       </c>
       <c r="F35" t="str">
-        <f>RIGHT(LEFT($A35,SUM($B$23:F$23)),F$23)</f>
+        <f>RIGHT(LEFT($A35,SUM($B$24:F$24)),F$24)</f>
         <v xml:space="preserve">XXXXX               XXXXX               XXXXX               </v>
       </c>
       <c r="G35" t="str">
-        <f>RIGHT(LEFT($A35,SUM($B$23:G$23)),G$23)</f>
-        <v>000000000024097</v>
+        <f>RIGHT(LEFT($A35,SUM($B$24:G$24)),G$24)</f>
+        <v>000000000024426</v>
       </c>
       <c r="H35" t="str">
-        <f>RIGHT(LEFT($A35,SUM($B$23:H$23)),H$23)</f>
-        <v>20210316</v>
+        <f>RIGHT(LEFT($A35,SUM($B$24:H$24)),H$24)</f>
+        <v>20210312</v>
       </c>
       <c r="I35" t="str">
-        <f>RIGHT(LEFT($A35,SUM($B$23:I$23)),I$23)</f>
+        <f>RIGHT(LEFT($A35,SUM($B$24:I$24)),I$24)</f>
         <v>0</v>
       </c>
       <c r="J35" t="str">
-        <f>RIGHT(LEFT($A35,SUM($B$23:J$23)),J$23)</f>
+        <f>RIGHT(LEFT($A35,SUM($B$24:J$24)),J$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="K35" t="str">
-        <f>RIGHT(LEFT($A35,SUM($B$23:K$23)),K$23)</f>
+        <f>RIGHT(LEFT($A35,SUM($B$24:K$24)),K$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="L35" t="str">
-        <f>RIGHT(LEFT($A35,SUM($B$23:L$23)),L$23)</f>
+        <f>RIGHT(LEFT($A35,SUM($B$24:L$24)),L$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="M35" t="str">
-        <f>RIGHT(LEFT($A35,SUM($B$23:M$23)),M$23)</f>
+        <f>RIGHT(LEFT($A35,SUM($B$24:M$24)),M$24)</f>
         <v>06068002786</v>
       </c>
       <c r="N35" t="str">
-        <f>RIGHT(LEFT($A35,SUM($B$23:N$23)),N$23)</f>
-        <v>ACT-20210226</v>
+        <f>RIGHT(LEFT($A35,SUM($B$24:N$24)),N$24)</f>
+        <v>678452210310</v>
       </c>
       <c r="O35" t="str">
-        <f>RIGHT(LEFT($A35,SUM($B$23:O$23)),O$23)</f>
-        <v>000000000024097</v>
+        <f>RIGHT(LEFT($A35,SUM($B$24:O$24)),O$24)</f>
+        <v>000000000015010</v>
       </c>
       <c r="P35" t="str">
-        <f>RIGHT(LEFT($A35,SUM($B$23:P$23)),P$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A35,SUM($B$24:P$24)),P$24)</f>
+        <v>000000000009240</v>
       </c>
       <c r="Q35" t="str">
-        <f>RIGHT(LEFT($A35,SUM($B$23:Q$23)),Q$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A35,SUM($B$24:Q$24)),Q$24)</f>
+        <v>000000000000176</v>
       </c>
       <c r="R35" t="str">
-        <f>RIGHT(LEFT($A35,SUM($B$23:R$23)),R$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="S35" t="str">
-        <f>RIGHT(LEFT($A35,SUM($B$23:S$23)),S$23)</f>
-        <v xml:space="preserve">000000000000000000000000000000000000000000000000 </v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>12</v>
+        <f>RIGHT(LEFT($A35,SUM($B$24:R$24)),R$24)</f>
+        <v>000000000000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">20050167847 </v>
+        <v>020050167847</v>
       </c>
       <c r="C36" t="str">
-        <f>RIGHT(LEFT($A36,SUM($B$23:C$23)),C$23)</f>
+        <f>RIGHT(LEFT($A36,SUM($B$24:C$24)),C$24)</f>
         <v>0191</v>
       </c>
       <c r="D36" t="str">
-        <f>RIGHT(LEFT($A36,SUM($B$23:D$23)),D$23)</f>
+        <f>RIGHT(LEFT($A36,SUM($B$24:D$24)),D$24)</f>
         <v>01</v>
       </c>
       <c r="E36" t="str">
-        <f>RIGHT(LEFT($A36,SUM($B$23:E$23)),E$23)</f>
+        <f>RIGHT(LEFT($A36,SUM($B$24:E$24)),E$24)</f>
         <v>2</v>
       </c>
       <c r="F36" t="str">
-        <f>RIGHT(LEFT($A36,SUM($B$23:F$23)),F$23)</f>
+        <f>RIGHT(LEFT($A36,SUM($B$24:F$24)),F$24)</f>
         <v xml:space="preserve">XXXXX               XXXXX               XXXXX               </v>
       </c>
       <c r="G36" t="str">
-        <f>RIGHT(LEFT($A36,SUM($B$23:G$23)),G$23)</f>
-        <v>000000000027663</v>
+        <f>RIGHT(LEFT($A36,SUM($B$24:G$24)),G$24)</f>
+        <v>000000000027867</v>
       </c>
       <c r="H36" t="str">
-        <f>RIGHT(LEFT($A36,SUM($B$23:H$23)),H$23)</f>
-        <v>20210211</v>
+        <f>RIGHT(LEFT($A36,SUM($B$24:H$24)),H$24)</f>
+        <v>20210312</v>
       </c>
       <c r="I36" t="str">
-        <f>RIGHT(LEFT($A36,SUM($B$23:I$23)),I$23)</f>
+        <f>RIGHT(LEFT($A36,SUM($B$24:I$24)),I$24)</f>
         <v>0</v>
       </c>
       <c r="J36" t="str">
-        <f>RIGHT(LEFT($A36,SUM($B$23:J$23)),J$23)</f>
+        <f>RIGHT(LEFT($A36,SUM($B$24:J$24)),J$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="K36" t="str">
-        <f>RIGHT(LEFT($A36,SUM($B$23:K$23)),K$23)</f>
+        <f>RIGHT(LEFT($A36,SUM($B$24:K$24)),K$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="L36" t="str">
-        <f>RIGHT(LEFT($A36,SUM($B$23:L$23)),L$23)</f>
+        <f>RIGHT(LEFT($A36,SUM($B$24:L$24)),L$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="M36" t="str">
-        <f>RIGHT(LEFT($A36,SUM($B$23:M$23)),M$23)</f>
+        <f>RIGHT(LEFT($A36,SUM($B$24:M$24)),M$24)</f>
         <v>06068002786</v>
       </c>
       <c r="N36" t="str">
-        <f>RIGHT(LEFT($A36,SUM($B$23:N$23)),N$23)</f>
-        <v>ATR-20210226</v>
+        <f>RIGHT(LEFT($A36,SUM($B$24:N$24)),N$24)</f>
+        <v>678472210310</v>
       </c>
       <c r="O36" t="str">
-        <f>RIGHT(LEFT($A36,SUM($B$23:O$23)),O$23)</f>
-        <v>000000000027663</v>
+        <f>RIGHT(LEFT($A36,SUM($B$24:O$24)),O$24)</f>
+        <v>000000000017082</v>
       </c>
       <c r="P36" t="str">
-        <f>RIGHT(LEFT($A36,SUM($B$23:P$23)),P$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A36,SUM($B$24:P$24)),P$24)</f>
+        <v>000000000010542</v>
       </c>
       <c r="Q36" t="str">
-        <f>RIGHT(LEFT($A36,SUM($B$23:Q$23)),Q$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A36,SUM($B$24:Q$24)),Q$24)</f>
+        <v>000000000000243</v>
       </c>
       <c r="R36" t="str">
-        <f>RIGHT(LEFT($A36,SUM($B$23:R$23)),R$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="S36" t="str">
-        <f>RIGHT(LEFT($A36,SUM($B$23:S$23)),S$23)</f>
-        <v xml:space="preserve">000000000000000000000000000000000000000000000000 </v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>13</v>
+        <f>RIGHT(LEFT($A36,SUM($B$24:R$24)),R$24)</f>
+        <v>000000000000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">20050167847 </v>
+        <v>020060131725</v>
       </c>
       <c r="C37" t="str">
-        <f>RIGHT(LEFT($A37,SUM($B$23:C$23)),C$23)</f>
-        <v>0192</v>
+        <f>RIGHT(LEFT($A37,SUM($B$24:C$24)),C$24)</f>
+        <v>0057</v>
       </c>
       <c r="D37" t="str">
-        <f>RIGHT(LEFT($A37,SUM($B$23:D$23)),D$23)</f>
+        <f>RIGHT(LEFT($A37,SUM($B$24:D$24)),D$24)</f>
         <v>01</v>
       </c>
       <c r="E37" t="str">
-        <f>RIGHT(LEFT($A37,SUM($B$23:E$23)),E$23)</f>
+        <f>RIGHT(LEFT($A37,SUM($B$24:E$24)),E$24)</f>
         <v>2</v>
       </c>
       <c r="F37" t="str">
-        <f>RIGHT(LEFT($A37,SUM($B$23:F$23)),F$23)</f>
-        <v xml:space="preserve">XXXXX               XXXXX               XXXXX               </v>
+        <f>RIGHT(LEFT($A37,SUM($B$24:F$24)),F$24)</f>
+        <v xml:space="preserve">XXXXX                                                       </v>
       </c>
       <c r="G37" t="str">
-        <f>RIGHT(LEFT($A37,SUM($B$23:G$23)),G$23)</f>
-        <v>000000000027421</v>
+        <f>RIGHT(LEFT($A37,SUM($B$24:G$24)),G$24)</f>
+        <v>000000002128789</v>
       </c>
       <c r="H37" t="str">
-        <f>RIGHT(LEFT($A37,SUM($B$23:H$23)),H$23)</f>
-        <v>20210311</v>
+        <f>RIGHT(LEFT($A37,SUM($B$24:H$24)),H$24)</f>
+        <v>20210312</v>
       </c>
       <c r="I37" t="str">
-        <f>RIGHT(LEFT($A37,SUM($B$23:I$23)),I$23)</f>
+        <f>RIGHT(LEFT($A37,SUM($B$24:I$24)),I$24)</f>
         <v>0</v>
       </c>
       <c r="J37" t="str">
-        <f>RIGHT(LEFT($A37,SUM($B$23:J$23)),J$23)</f>
+        <f>RIGHT(LEFT($A37,SUM($B$24:J$24)),J$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="K37" t="str">
-        <f>RIGHT(LEFT($A37,SUM($B$23:K$23)),K$23)</f>
+        <f>RIGHT(LEFT($A37,SUM($B$24:K$24)),K$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="L37" t="str">
-        <f>RIGHT(LEFT($A37,SUM($B$23:L$23)),L$23)</f>
+        <f>RIGHT(LEFT($A37,SUM($B$24:L$24)),L$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="M37" t="str">
-        <f>RIGHT(LEFT($A37,SUM($B$23:M$23)),M$23)</f>
+        <f>RIGHT(LEFT($A37,SUM($B$24:M$24)),M$24)</f>
         <v>06068002786</v>
       </c>
       <c r="N37" t="str">
-        <f>RIGHT(LEFT($A37,SUM($B$23:N$23)),N$23)</f>
-        <v>ACT-20210226</v>
+        <f>RIGHT(LEFT($A37,SUM($B$24:N$24)),N$24)</f>
+        <v>317252210310</v>
       </c>
       <c r="O37" t="str">
-        <f>RIGHT(LEFT($A37,SUM($B$23:O$23)),O$23)</f>
-        <v>000000000027421</v>
+        <f>RIGHT(LEFT($A37,SUM($B$24:O$24)),O$24)</f>
+        <v>000000002116781</v>
       </c>
       <c r="P37" t="str">
-        <f>RIGHT(LEFT($A37,SUM($B$23:P$23)),P$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A37,SUM($B$24:P$24)),P$24)</f>
+        <v>000000000012008</v>
       </c>
       <c r="Q37" t="str">
-        <f>RIGHT(LEFT($A37,SUM($B$23:Q$23)),Q$23)</f>
+        <f>RIGHT(LEFT($A37,SUM($B$24:Q$24)),Q$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="R37" t="str">
-        <f>RIGHT(LEFT($A37,SUM($B$23:R$23)),R$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="S37" t="str">
-        <f>RIGHT(LEFT($A37,SUM($B$23:S$23)),S$23)</f>
-        <v xml:space="preserve">000000000000000000000000000000000000000000000000 </v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>14</v>
+        <f>RIGHT(LEFT($A37,SUM($B$24:R$24)),R$24)</f>
+        <v>000000000000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">20050167867 </v>
+        <v>020060131736</v>
       </c>
       <c r="C38" t="str">
-        <f>RIGHT(LEFT($A38,SUM($B$23:C$23)),C$23)</f>
-        <v>0263</v>
+        <f>RIGHT(LEFT($A38,SUM($B$24:C$24)),C$24)</f>
+        <v>0056</v>
       </c>
       <c r="D38" t="str">
-        <f>RIGHT(LEFT($A38,SUM($B$23:D$23)),D$23)</f>
+        <f>RIGHT(LEFT($A38,SUM($B$24:D$24)),D$24)</f>
         <v>01</v>
       </c>
       <c r="E38" t="str">
-        <f>RIGHT(LEFT($A38,SUM($B$23:E$23)),E$23)</f>
+        <f>RIGHT(LEFT($A38,SUM($B$24:E$24)),E$24)</f>
         <v>2</v>
       </c>
       <c r="F38" t="str">
-        <f>RIGHT(LEFT($A38,SUM($B$23:F$23)),F$23)</f>
-        <v xml:space="preserve">XXXXX               XXXXX               XXXXX               </v>
+        <f>RIGHT(LEFT($A38,SUM($B$24:F$24)),F$24)</f>
+        <v xml:space="preserve">XXXXX                                                       </v>
       </c>
       <c r="G38" t="str">
-        <f>RIGHT(LEFT($A38,SUM($B$23:G$23)),G$23)</f>
-        <v>000000000050795</v>
+        <f>RIGHT(LEFT($A38,SUM($B$24:G$24)),G$24)</f>
+        <v>000000001282634</v>
       </c>
       <c r="H38" t="str">
-        <f>RIGHT(LEFT($A38,SUM($B$23:H$23)),H$23)</f>
-        <v>20210210</v>
+        <f>RIGHT(LEFT($A38,SUM($B$24:H$24)),H$24)</f>
+        <v>20210312</v>
       </c>
       <c r="I38" t="str">
-        <f>RIGHT(LEFT($A38,SUM($B$23:I$23)),I$23)</f>
+        <f>RIGHT(LEFT($A38,SUM($B$24:I$24)),I$24)</f>
         <v>0</v>
       </c>
       <c r="J38" t="str">
-        <f>RIGHT(LEFT($A38,SUM($B$23:J$23)),J$23)</f>
+        <f>RIGHT(LEFT($A38,SUM($B$24:J$24)),J$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="K38" t="str">
-        <f>RIGHT(LEFT($A38,SUM($B$23:K$23)),K$23)</f>
+        <f>RIGHT(LEFT($A38,SUM($B$24:K$24)),K$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="L38" t="str">
-        <f>RIGHT(LEFT($A38,SUM($B$23:L$23)),L$23)</f>
+        <f>RIGHT(LEFT($A38,SUM($B$24:L$24)),L$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="M38" t="str">
-        <f>RIGHT(LEFT($A38,SUM($B$23:M$23)),M$23)</f>
+        <f>RIGHT(LEFT($A38,SUM($B$24:M$24)),M$24)</f>
         <v>06068002786</v>
       </c>
       <c r="N38" t="str">
-        <f>RIGHT(LEFT($A38,SUM($B$23:N$23)),N$23)</f>
-        <v>ATR-20210226</v>
+        <f>RIGHT(LEFT($A38,SUM($B$24:N$24)),N$24)</f>
+        <v>317362210310</v>
       </c>
       <c r="O38" t="str">
-        <f>RIGHT(LEFT($A38,SUM($B$23:O$23)),O$23)</f>
-        <v>000000000050795</v>
+        <f>RIGHT(LEFT($A38,SUM($B$24:O$24)),O$24)</f>
+        <v>000000001275393</v>
       </c>
       <c r="P38" t="str">
-        <f>RIGHT(LEFT($A38,SUM($B$23:P$23)),P$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A38,SUM($B$24:P$24)),P$24)</f>
+        <v>000000000007241</v>
       </c>
       <c r="Q38" t="str">
-        <f>RIGHT(LEFT($A38,SUM($B$23:Q$23)),Q$23)</f>
+        <f>RIGHT(LEFT($A38,SUM($B$24:Q$24)),Q$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="R38" t="str">
-        <f>RIGHT(LEFT($A38,SUM($B$23:R$23)),R$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="S38" t="str">
-        <f>RIGHT(LEFT($A38,SUM($B$23:S$23)),S$23)</f>
-        <v xml:space="preserve">000000000000000000000000000000000000000000000000 </v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>15</v>
+        <f>RIGHT(LEFT($A38,SUM($B$24:R$24)),R$24)</f>
+        <v>000000000000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">20050167867 </v>
+        <v>020070131369</v>
       </c>
       <c r="C39" t="str">
-        <f>RIGHT(LEFT($A39,SUM($B$23:C$23)),C$23)</f>
-        <v>0264</v>
+        <f>RIGHT(LEFT($A39,SUM($B$24:C$24)),C$24)</f>
+        <v>0055</v>
       </c>
       <c r="D39" t="str">
-        <f>RIGHT(LEFT($A39,SUM($B$23:D$23)),D$23)</f>
+        <f>RIGHT(LEFT($A39,SUM($B$24:D$24)),D$24)</f>
         <v>01</v>
       </c>
       <c r="E39" t="str">
-        <f>RIGHT(LEFT($A39,SUM($B$23:E$23)),E$23)</f>
+        <f>RIGHT(LEFT($A39,SUM($B$24:E$24)),E$24)</f>
         <v>2</v>
       </c>
       <c r="F39" t="str">
-        <f>RIGHT(LEFT($A39,SUM($B$23:F$23)),F$23)</f>
-        <v xml:space="preserve">XXXXX               XXXXX               XXXXX               </v>
+        <f>RIGHT(LEFT($A39,SUM($B$24:F$24)),F$24)</f>
+        <v xml:space="preserve">XXXXX                                                       </v>
       </c>
       <c r="G39" t="str">
-        <f>RIGHT(LEFT($A39,SUM($B$23:G$23)),G$23)</f>
-        <v>000000000026590</v>
+        <f>RIGHT(LEFT($A39,SUM($B$24:G$24)),G$24)</f>
+        <v>000000000760737</v>
       </c>
       <c r="H39" t="str">
-        <f>RIGHT(LEFT($A39,SUM($B$23:H$23)),H$23)</f>
-        <v>20210310</v>
+        <f>RIGHT(LEFT($A39,SUM($B$24:H$24)),H$24)</f>
+        <v>20210312</v>
       </c>
       <c r="I39" t="str">
-        <f>RIGHT(LEFT($A39,SUM($B$23:I$23)),I$23)</f>
+        <f>RIGHT(LEFT($A39,SUM($B$24:I$24)),I$24)</f>
         <v>0</v>
       </c>
       <c r="J39" t="str">
-        <f>RIGHT(LEFT($A39,SUM($B$23:J$23)),J$23)</f>
+        <f>RIGHT(LEFT($A39,SUM($B$24:J$24)),J$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="K39" t="str">
-        <f>RIGHT(LEFT($A39,SUM($B$23:K$23)),K$23)</f>
+        <f>RIGHT(LEFT($A39,SUM($B$24:K$24)),K$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="L39" t="str">
-        <f>RIGHT(LEFT($A39,SUM($B$23:L$23)),L$23)</f>
+        <f>RIGHT(LEFT($A39,SUM($B$24:L$24)),L$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="M39" t="str">
-        <f>RIGHT(LEFT($A39,SUM($B$23:M$23)),M$23)</f>
+        <f>RIGHT(LEFT($A39,SUM($B$24:M$24)),M$24)</f>
         <v>06068002786</v>
       </c>
       <c r="N39" t="str">
-        <f>RIGHT(LEFT($A39,SUM($B$23:N$23)),N$23)</f>
-        <v>ACT-20210226</v>
+        <f>RIGHT(LEFT($A39,SUM($B$24:N$24)),N$24)</f>
+        <v>313692210310</v>
       </c>
       <c r="O39" t="str">
-        <f>RIGHT(LEFT($A39,SUM($B$23:O$23)),O$23)</f>
-        <v>000000000026590</v>
+        <f>RIGHT(LEFT($A39,SUM($B$24:O$24)),O$24)</f>
+        <v>000000000714473</v>
       </c>
       <c r="P39" t="str">
-        <f>RIGHT(LEFT($A39,SUM($B$23:P$23)),P$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A39,SUM($B$24:P$24)),P$24)</f>
+        <v>000000000009970</v>
       </c>
       <c r="Q39" t="str">
-        <f>RIGHT(LEFT($A39,SUM($B$23:Q$23)),Q$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A39,SUM($B$24:Q$24)),Q$24)</f>
+        <v>000000000036294</v>
       </c>
       <c r="R39" t="str">
-        <f>RIGHT(LEFT($A39,SUM($B$23:R$23)),R$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="S39" t="str">
-        <f>RIGHT(LEFT($A39,SUM($B$23:S$23)),S$23)</f>
-        <v xml:space="preserve">000000000000000000000000000000000000000000000000 </v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>16</v>
+        <f>RIGHT(LEFT($A39,SUM($B$24:R$24)),R$24)</f>
+        <v>000000000000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">20060117136 </v>
+        <v>020100138186</v>
       </c>
       <c r="C40" t="str">
-        <f>RIGHT(LEFT($A40,SUM($B$23:C$23)),C$23)</f>
-        <v>0174</v>
+        <f>RIGHT(LEFT($A40,SUM($B$24:C$24)),C$24)</f>
+        <v>0060</v>
       </c>
       <c r="D40" t="str">
-        <f>RIGHT(LEFT($A40,SUM($B$23:D$23)),D$23)</f>
+        <f>RIGHT(LEFT($A40,SUM($B$24:D$24)),D$24)</f>
         <v>01</v>
       </c>
       <c r="E40" t="str">
-        <f>RIGHT(LEFT($A40,SUM($B$23:E$23)),E$23)</f>
+        <f>RIGHT(LEFT($A40,SUM($B$24:E$24)),E$24)</f>
         <v>2</v>
       </c>
       <c r="F40" t="str">
-        <f>RIGHT(LEFT($A40,SUM($B$23:F$23)),F$23)</f>
+        <f>RIGHT(LEFT($A40,SUM($B$24:F$24)),F$24)</f>
         <v xml:space="preserve">XXXXX               XXXXX               XXXXX               </v>
       </c>
       <c r="G40" t="str">
-        <f>RIGHT(LEFT($A40,SUM($B$23:G$23)),G$23)</f>
-        <v>000000000421844</v>
+        <f>RIGHT(LEFT($A40,SUM($B$24:G$24)),G$24)</f>
+        <v>000000002903284</v>
       </c>
       <c r="H40" t="str">
-        <f>RIGHT(LEFT($A40,SUM($B$23:H$23)),H$23)</f>
-        <v>20210320</v>
+        <f>RIGHT(LEFT($A40,SUM($B$24:H$24)),H$24)</f>
+        <v>20210312</v>
       </c>
       <c r="I40" t="str">
-        <f>RIGHT(LEFT($A40,SUM($B$23:I$23)),I$23)</f>
+        <f>RIGHT(LEFT($A40,SUM($B$24:I$24)),I$24)</f>
         <v>0</v>
       </c>
       <c r="J40" t="str">
-        <f>RIGHT(LEFT($A40,SUM($B$23:J$23)),J$23)</f>
+        <f>RIGHT(LEFT($A40,SUM($B$24:J$24)),J$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="K40" t="str">
-        <f>RIGHT(LEFT($A40,SUM($B$23:K$23)),K$23)</f>
+        <f>RIGHT(LEFT($A40,SUM($B$24:K$24)),K$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="L40" t="str">
-        <f>RIGHT(LEFT($A40,SUM($B$23:L$23)),L$23)</f>
+        <f>RIGHT(LEFT($A40,SUM($B$24:L$24)),L$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="M40" t="str">
-        <f>RIGHT(LEFT($A40,SUM($B$23:M$23)),M$23)</f>
+        <f>RIGHT(LEFT($A40,SUM($B$24:M$24)),M$24)</f>
         <v>06068002786</v>
       </c>
       <c r="N40" t="str">
-        <f>RIGHT(LEFT($A40,SUM($B$23:N$23)),N$23)</f>
-        <v>ACT-20210226</v>
+        <f>RIGHT(LEFT($A40,SUM($B$24:N$24)),N$24)</f>
+        <v>381862210310</v>
       </c>
       <c r="O40" t="str">
-        <f>RIGHT(LEFT($A40,SUM($B$23:O$23)),O$23)</f>
-        <v>000000000421844</v>
+        <f>RIGHT(LEFT($A40,SUM($B$24:O$24)),O$24)</f>
+        <v>000000000765999</v>
       </c>
       <c r="P40" t="str">
-        <f>RIGHT(LEFT($A40,SUM($B$23:P$23)),P$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A40,SUM($B$24:P$24)),P$24)</f>
+        <v>000000000770985</v>
       </c>
       <c r="Q40" t="str">
-        <f>RIGHT(LEFT($A40,SUM($B$23:Q$23)),Q$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A40,SUM($B$24:Q$24)),Q$24)</f>
+        <v>000000001366300</v>
       </c>
       <c r="R40" t="str">
-        <f>RIGHT(LEFT($A40,SUM($B$23:R$23)),R$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="S40" t="str">
-        <f>RIGHT(LEFT($A40,SUM($B$23:S$23)),S$23)</f>
-        <v xml:space="preserve">000000000000000000000000000000000000000000000000 </v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>17</v>
+        <f>RIGHT(LEFT($A40,SUM($B$24:R$24)),R$24)</f>
+        <v>000000000000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">20060131724 </v>
+        <v>020110130733</v>
       </c>
       <c r="C41" t="str">
-        <f>RIGHT(LEFT($A41,SUM($B$23:C$23)),C$23)</f>
-        <v>0056</v>
+        <f>RIGHT(LEFT($A41,SUM($B$24:C$24)),C$24)</f>
+        <v>0113</v>
       </c>
       <c r="D41" t="str">
-        <f>RIGHT(LEFT($A41,SUM($B$23:D$23)),D$23)</f>
+        <f>RIGHT(LEFT($A41,SUM($B$24:D$24)),D$24)</f>
         <v>01</v>
       </c>
       <c r="E41" t="str">
-        <f>RIGHT(LEFT($A41,SUM($B$23:E$23)),E$23)</f>
+        <f>RIGHT(LEFT($A41,SUM($B$24:E$24)),E$24)</f>
         <v>2</v>
       </c>
       <c r="F41" t="str">
-        <f>RIGHT(LEFT($A41,SUM($B$23:F$23)),F$23)</f>
-        <v xml:space="preserve">XXXXX                                                       </v>
+        <f>RIGHT(LEFT($A41,SUM($B$24:F$24)),F$24)</f>
+        <v xml:space="preserve">XXXXX               XXXXX               XXXXX               </v>
       </c>
       <c r="G41" t="str">
-        <f>RIGHT(LEFT($A41,SUM($B$23:G$23)),G$23)</f>
-        <v>000000002779851</v>
+        <f>RIGHT(LEFT($A41,SUM($B$24:G$24)),G$24)</f>
+        <v>000000000334815</v>
       </c>
       <c r="H41" t="str">
-        <f>RIGHT(LEFT($A41,SUM($B$23:H$23)),H$23)</f>
-        <v>20201230</v>
+        <f>RIGHT(LEFT($A41,SUM($B$24:H$24)),H$24)</f>
+        <v>20210312</v>
       </c>
       <c r="I41" t="str">
-        <f>RIGHT(LEFT($A41,SUM($B$23:I$23)),I$23)</f>
+        <f>RIGHT(LEFT($A41,SUM($B$24:I$24)),I$24)</f>
         <v>0</v>
       </c>
       <c r="J41" t="str">
-        <f>RIGHT(LEFT($A41,SUM($B$23:J$23)),J$23)</f>
+        <f>RIGHT(LEFT($A41,SUM($B$24:J$24)),J$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="K41" t="str">
-        <f>RIGHT(LEFT($A41,SUM($B$23:K$23)),K$23)</f>
+        <f>RIGHT(LEFT($A41,SUM($B$24:K$24)),K$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="L41" t="str">
-        <f>RIGHT(LEFT($A41,SUM($B$23:L$23)),L$23)</f>
+        <f>RIGHT(LEFT($A41,SUM($B$24:L$24)),L$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="M41" t="str">
-        <f>RIGHT(LEFT($A41,SUM($B$23:M$23)),M$23)</f>
+        <f>RIGHT(LEFT($A41,SUM($B$24:M$24)),M$24)</f>
         <v>06068002786</v>
       </c>
       <c r="N41" t="str">
-        <f>RIGHT(LEFT($A41,SUM($B$23:N$23)),N$23)</f>
-        <v>ATR-20210226</v>
+        <f>RIGHT(LEFT($A41,SUM($B$24:N$24)),N$24)</f>
+        <v>307332210310</v>
       </c>
       <c r="O41" t="str">
-        <f>RIGHT(LEFT($A41,SUM($B$23:O$23)),O$23)</f>
-        <v>000000002779851</v>
+        <f>RIGHT(LEFT($A41,SUM($B$24:O$24)),O$24)</f>
+        <v>000000000186610</v>
       </c>
       <c r="P41" t="str">
-        <f>RIGHT(LEFT($A41,SUM($B$23:P$23)),P$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A41,SUM($B$24:P$24)),P$24)</f>
+        <v>000000000147520</v>
       </c>
       <c r="Q41" t="str">
-        <f>RIGHT(LEFT($A41,SUM($B$23:Q$23)),Q$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A41,SUM($B$24:Q$24)),Q$24)</f>
+        <v>000000000000685</v>
       </c>
       <c r="R41" t="str">
-        <f>RIGHT(LEFT($A41,SUM($B$23:R$23)),R$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="S41" t="str">
-        <f>RIGHT(LEFT($A41,SUM($B$23:S$23)),S$23)</f>
-        <v xml:space="preserve">000000000000000000000000000000000000000000000000 </v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>18</v>
+        <f>RIGHT(LEFT($A41,SUM($B$24:R$24)),R$24)</f>
+        <v>000000000000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">20060131724 </v>
+        <v>020150132335</v>
       </c>
       <c r="C42" t="str">
-        <f>RIGHT(LEFT($A42,SUM($B$23:C$23)),C$23)</f>
-        <v>0057</v>
+        <f>RIGHT(LEFT($A42,SUM($B$24:C$24)),C$24)</f>
+        <v>0069</v>
       </c>
       <c r="D42" t="str">
-        <f>RIGHT(LEFT($A42,SUM($B$23:D$23)),D$23)</f>
+        <f>RIGHT(LEFT($A42,SUM($B$24:D$24)),D$24)</f>
         <v>01</v>
       </c>
       <c r="E42" t="str">
-        <f>RIGHT(LEFT($A42,SUM($B$23:E$23)),E$23)</f>
+        <f>RIGHT(LEFT($A42,SUM($B$24:E$24)),E$24)</f>
         <v>2</v>
       </c>
       <c r="F42" t="str">
-        <f>RIGHT(LEFT($A42,SUM($B$23:F$23)),F$23)</f>
+        <f>RIGHT(LEFT($A42,SUM($B$24:F$24)),F$24)</f>
         <v xml:space="preserve">XXXXX                                                       </v>
       </c>
       <c r="G42" t="str">
-        <f>RIGHT(LEFT($A42,SUM($B$23:G$23)),G$23)</f>
-        <v>000000000850000</v>
+        <f>RIGHT(LEFT($A42,SUM($B$24:G$24)),G$24)</f>
+        <v>000000020206785</v>
       </c>
       <c r="H42" t="str">
-        <f>RIGHT(LEFT($A42,SUM($B$23:H$23)),H$23)</f>
-        <v>20210330</v>
+        <f>RIGHT(LEFT($A42,SUM($B$24:H$24)),H$24)</f>
+        <v>20210312</v>
       </c>
       <c r="I42" t="str">
-        <f>RIGHT(LEFT($A42,SUM($B$23:I$23)),I$23)</f>
+        <f>RIGHT(LEFT($A42,SUM($B$24:I$24)),I$24)</f>
         <v>0</v>
       </c>
       <c r="J42" t="str">
-        <f>RIGHT(LEFT($A42,SUM($B$23:J$23)),J$23)</f>
+        <f>RIGHT(LEFT($A42,SUM($B$24:J$24)),J$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="K42" t="str">
-        <f>RIGHT(LEFT($A42,SUM($B$23:K$23)),K$23)</f>
+        <f>RIGHT(LEFT($A42,SUM($B$24:K$24)),K$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="L42" t="str">
-        <f>RIGHT(LEFT($A42,SUM($B$23:L$23)),L$23)</f>
+        <f>RIGHT(LEFT($A42,SUM($B$24:L$24)),L$24)</f>
         <v>000000000000000</v>
       </c>
       <c r="M42" t="str">
-        <f>RIGHT(LEFT($A42,SUM($B$23:M$23)),M$23)</f>
+        <f>RIGHT(LEFT($A42,SUM($B$24:M$24)),M$24)</f>
         <v>06068002786</v>
       </c>
       <c r="N42" t="str">
-        <f>RIGHT(LEFT($A42,SUM($B$23:N$23)),N$23)</f>
-        <v>ACT-20210226</v>
+        <f>RIGHT(LEFT($A42,SUM($B$24:N$24)),N$24)</f>
+        <v>323352210310</v>
       </c>
       <c r="O42" t="str">
-        <f>RIGHT(LEFT($A42,SUM($B$23:O$23)),O$23)</f>
-        <v>000000000850000</v>
+        <f>RIGHT(LEFT($A42,SUM($B$24:O$24)),O$24)</f>
+        <v>000000011525249</v>
       </c>
       <c r="P42" t="str">
-        <f>RIGHT(LEFT($A42,SUM($B$23:P$23)),P$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A42,SUM($B$24:P$24)),P$24)</f>
+        <v>000000007180010</v>
       </c>
       <c r="Q42" t="str">
-        <f>RIGHT(LEFT($A42,SUM($B$23:Q$23)),Q$23)</f>
-        <v>000000000000000</v>
+        <f>RIGHT(LEFT($A42,SUM($B$24:Q$24)),Q$24)</f>
+        <v>000000001501526</v>
       </c>
       <c r="R42" t="str">
-        <f>RIGHT(LEFT($A42,SUM($B$23:R$23)),R$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="S42" t="str">
-        <f>RIGHT(LEFT($A42,SUM($B$23:S$23)),S$23)</f>
-        <v xml:space="preserve">000000000000000000000000000000000000000000000000 </v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+        <f>RIGHT(LEFT($A42,SUM($B$24:R$24)),R$24)</f>
+        <v>000000000000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">20212118428 </v>
+        <v>020150132379</v>
       </c>
       <c r="C43" t="str">
-        <f>RIGHT(LEFT($A43,SUM($B$23:C$23)),C$23)</f>
-        <v>0001</v>
+        <f>RIGHT(LEFT($A43,SUM($B$24:C$24)),C$24)</f>
+        <v>0064</v>
       </c>
       <c r="D43" t="str">
-        <f>RIGHT(LEFT($A43,SUM($B$23:D$23)),D$23)</f>
+        <f>RIGHT(LEFT($A43,SUM($B$24:D$24)),D$24)</f>
         <v>01</v>
       </c>
       <c r="E43" t="str">
-        <f>RIGHT(LEFT($A43,SUM($B$23:E$23)),E$23)</f>
-        <v>1</v>
+        <f>RIGHT(LEFT($A43,SUM($B$24:E$24)),E$24)</f>
+        <v>2</v>
       </c>
       <c r="F43" t="str">
-        <f>RIGHT(LEFT($A43,SUM($B$23:F$23)),F$23)</f>
+        <f>RIGHT(LEFT($A43,SUM($B$24:F$24)),F$24)</f>
+        <v xml:space="preserve">XXXXX                                                       </v>
+      </c>
+      <c r="G43" t="str">
+        <f>RIGHT(LEFT($A43,SUM($B$24:G$24)),G$24)</f>
+        <v>000000116344154</v>
+      </c>
+      <c r="H43" t="str">
+        <f>RIGHT(LEFT($A43,SUM($B$24:H$24)),H$24)</f>
+        <v>20210312</v>
+      </c>
+      <c r="I43" t="str">
+        <f>RIGHT(LEFT($A43,SUM($B$24:I$24)),I$24)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" t="str">
+        <f>RIGHT(LEFT($A43,SUM($B$24:J$24)),J$24)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="K43" t="str">
+        <f>RIGHT(LEFT($A43,SUM($B$24:K$24)),K$24)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="L43" t="str">
+        <f>RIGHT(LEFT($A43,SUM($B$24:L$24)),L$24)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="M43" t="str">
+        <f>RIGHT(LEFT($A43,SUM($B$24:M$24)),M$24)</f>
+        <v>06068002786</v>
+      </c>
+      <c r="N43" t="str">
+        <f>RIGHT(LEFT($A43,SUM($B$24:N$24)),N$24)</f>
+        <v>323792210310</v>
+      </c>
+      <c r="O43" t="str">
+        <f>RIGHT(LEFT($A43,SUM($B$24:O$24)),O$24)</f>
+        <v>000000058151719</v>
+      </c>
+      <c r="P43" t="str">
+        <f>RIGHT(LEFT($A43,SUM($B$24:P$24)),P$24)</f>
+        <v>000000042981750</v>
+      </c>
+      <c r="Q43" t="str">
+        <f>RIGHT(LEFT($A43,SUM($B$24:Q$24)),Q$24)</f>
+        <v>000000015210685</v>
+      </c>
+      <c r="R43" t="str">
+        <f>RIGHT(LEFT($A43,SUM($B$24:R$24)),R$24)</f>
+        <v>000000000000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>020150146138</v>
+      </c>
+      <c r="C44" t="str">
+        <f>RIGHT(LEFT($A44,SUM($B$24:C$24)),C$24)</f>
+        <v>0060</v>
+      </c>
+      <c r="D44" t="str">
+        <f>RIGHT(LEFT($A44,SUM($B$24:D$24)),D$24)</f>
+        <v>01</v>
+      </c>
+      <c r="E44" t="str">
+        <f>RIGHT(LEFT($A44,SUM($B$24:E$24)),E$24)</f>
+        <v>2</v>
+      </c>
+      <c r="F44" t="str">
+        <f>RIGHT(LEFT($A44,SUM($B$24:F$24)),F$24)</f>
         <v xml:space="preserve">XXXXX               XXXXX               XXXXX               </v>
       </c>
-      <c r="G43" t="str">
-        <f>RIGHT(LEFT($A43,SUM($B$23:G$23)),G$23)</f>
-        <v>000000000072756</v>
-      </c>
-      <c r="H43" t="str">
-        <f>RIGHT(LEFT($A43,SUM($B$23:H$23)),H$23)</f>
-        <v>20210228</v>
-      </c>
-      <c r="I43" t="str">
-        <f>RIGHT(LEFT($A43,SUM($B$23:I$23)),I$23)</f>
+      <c r="G44" t="str">
+        <f>RIGHT(LEFT($A44,SUM($B$24:G$24)),G$24)</f>
+        <v>000000002137800</v>
+      </c>
+      <c r="H44" t="str">
+        <f>RIGHT(LEFT($A44,SUM($B$24:H$24)),H$24)</f>
+        <v>20210312</v>
+      </c>
+      <c r="I44" t="str">
+        <f>RIGHT(LEFT($A44,SUM($B$24:I$24)),I$24)</f>
         <v>0</v>
       </c>
-      <c r="J43" t="str">
-        <f>RIGHT(LEFT($A43,SUM($B$23:J$23)),J$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="K43" t="str">
-        <f>RIGHT(LEFT($A43,SUM($B$23:K$23)),K$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="L43" t="str">
-        <f>RIGHT(LEFT($A43,SUM($B$23:L$23)),L$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="M43" t="str">
-        <f>RIGHT(LEFT($A43,SUM($B$23:M$23)),M$23)</f>
-        <v>00068385520</v>
-      </c>
-      <c r="N43" t="str">
-        <f>RIGHT(LEFT($A43,SUM($B$23:N$23)),N$23)</f>
-        <v>ACT-20210226</v>
-      </c>
-      <c r="O43" t="str">
-        <f>RIGHT(LEFT($A43,SUM($B$23:O$23)),O$23)</f>
-        <v>000000000072756</v>
-      </c>
-      <c r="P43" t="str">
-        <f>RIGHT(LEFT($A43,SUM($B$23:P$23)),P$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="Q43" t="str">
-        <f>RIGHT(LEFT($A43,SUM($B$23:Q$23)),Q$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="R43" t="str">
-        <f>RIGHT(LEFT($A43,SUM($B$23:R$23)),R$23)</f>
-        <v>000000000000000</v>
-      </c>
-      <c r="S43" t="str">
-        <f>RIGHT(LEFT($A43,SUM($B$23:S$23)),S$23)</f>
-        <v xml:space="preserve">000000000000000000000000000000000000000000000000 </v>
+      <c r="J44" t="str">
+        <f>RIGHT(LEFT($A44,SUM($B$24:J$24)),J$24)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="K44" t="str">
+        <f>RIGHT(LEFT($A44,SUM($B$24:K$24)),K$24)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="L44" t="str">
+        <f>RIGHT(LEFT($A44,SUM($B$24:L$24)),L$24)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="M44" t="str">
+        <f>RIGHT(LEFT($A44,SUM($B$24:M$24)),M$24)</f>
+        <v>06068002786</v>
+      </c>
+      <c r="N44" t="str">
+        <f>RIGHT(LEFT($A44,SUM($B$24:N$24)),N$24)</f>
+        <v>461382210310</v>
+      </c>
+      <c r="O44" t="str">
+        <f>RIGHT(LEFT($A44,SUM($B$24:O$24)),O$24)</f>
+        <v>000000001096127</v>
+      </c>
+      <c r="P44" t="str">
+        <f>RIGHT(LEFT($A44,SUM($B$24:P$24)),P$24)</f>
+        <v>000000000424778</v>
+      </c>
+      <c r="Q44" t="str">
+        <f>RIGHT(LEFT($A44,SUM($B$24:Q$24)),Q$24)</f>
+        <v>000000000616895</v>
+      </c>
+      <c r="R44" t="str">
+        <f>RIGHT(LEFT($A44,SUM($B$24:R$24)),R$24)</f>
+        <v>000000000000000</v>
       </c>
     </row>
   </sheetData>

--- a/validacion.xlsx
+++ b/validacion.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\D\Zona de Trabajo\SQL\Recaudacion-BN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zona Trabajo\SQL\Recaudacion-BN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EE1D57-5517-401A-834B-74F641C8DCF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590AB1E9-A175-428A-8B16-6AF4DAE8E8CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D083D23-69AA-4411-88FA-927F8FD39A68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8D083D23-69AA-4411-88FA-927F8FD39A68}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Envio Cabecera" sheetId="2" r:id="rId1"/>
+    <sheet name="Envio Detalle" sheetId="3" r:id="rId2"/>
+    <sheet name="Recepcion Detalle" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="116">
   <si>
     <t>CABECERA</t>
   </si>
@@ -251,13 +251,145 @@
   </si>
   <si>
     <t>018010000000200000000452886040000001461512912021031001</t>
+  </si>
+  <si>
+    <t>REGISTRO</t>
+  </si>
+  <si>
+    <t>CAMPO</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>LONGITUD</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>Número del crédito cobrado </t>
+  </si>
+  <si>
+    <t>Num. de Cuota</t>
+  </si>
+  <si>
+    <t>Número de la cuota del crédito</t>
+  </si>
+  <si>
+    <t>Situación de la recuperación</t>
+  </si>
+  <si>
+    <t>Las situaciones de desembolso son:      * 02= Pagado totalmente</t>
+  </si>
+  <si>
+    <t>* 04= Pagado parcialmente</t>
+  </si>
+  <si>
+    <t>Código de moneda</t>
+  </si>
+  <si>
+    <t>Los códigos de moneda son:                  * 1 = Soles                                             * 2 = Dólares</t>
+  </si>
+  <si>
+    <t>Nombre Cliente</t>
+  </si>
+  <si>
+    <t>Fecha de caducidad</t>
+  </si>
+  <si>
+    <t>YYYYMMDD        Ej. 20050814</t>
+  </si>
+  <si>
+    <t>Indicar de la Tasa</t>
+  </si>
+  <si>
+    <t>Los indicadores de tasa son:</t>
+  </si>
+  <si>
+    <t>* 0 = Tasa determinada</t>
+  </si>
+  <si>
+    <t>* 1 = Tasa con factores</t>
+  </si>
+  <si>
+    <t>Factor Mora</t>
+  </si>
+  <si>
+    <t>8 + 7 decimales. Ej. 000000041000000 = S/. 4.1000000</t>
+  </si>
+  <si>
+    <t>Factor Compensación</t>
+  </si>
+  <si>
+    <t>Importe Gastos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuenta Cliente </t>
+  </si>
+  <si>
+    <t>Cuenta del cliente, deberá tener una cuenta para soles y otra cuenta para dólares</t>
+  </si>
+  <si>
+    <t>Número de cobro</t>
+  </si>
+  <si>
+    <t>Mora</t>
+  </si>
+  <si>
+    <t>Importe de la mora:</t>
+  </si>
+  <si>
+    <t>Compensación</t>
+  </si>
+  <si>
+    <t>Importe de la compensación:</t>
+  </si>
+  <si>
+    <t>Importe Cobrado</t>
+  </si>
+  <si>
+    <t>Agencia de cobro</t>
+  </si>
+  <si>
+    <t>Código de la agencia que se ha cobrado la recuperación</t>
+  </si>
+  <si>
+    <t>Fecha de Cobro</t>
+  </si>
+  <si>
+    <t>Fecha que se ha cobrado la recuperación:                      YYYYMMDD        Ej. 20050714</t>
+  </si>
+  <si>
+    <t>Hora de Cobro</t>
+  </si>
+  <si>
+    <t>Hora que se ha cobrado la recuperación:</t>
+  </si>
+  <si>
+    <t>HHMMSS             Ej:103005</t>
+  </si>
+  <si>
+    <t>0202001798570013021GARCIA              VALERIO             EDGAR EDUARDO221032600000000053259020210313000000000000000000000000000000000000000000000000068385520000000000000000000000000000000000000000000000000000532590000520210326163309</t>
+  </si>
+  <si>
+    <t>0202001799770010021CHUMBIMUNI          SANCHEZ             CECILIA DEL P221032600000000008674120210313000000000000000000000000000000000000000000000000068385520000000000000000000000000000000000000000000000000000086741000520210326163419</t>
+  </si>
+  <si>
+    <t>0202001801390001041VELEZ               BENDEZU             VERONICA PATR221032600000000230399620210313000000000000000000000000000000000000000000000000068385520000000000000000000000000000000000000000000000000000303996000520210326163551  &lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>0202001802300006021PERALTA             MORALES             MELCHOR      221032600000000016159020210313000000000000000000000000000000000000000000000000068385520000000000000000000000000000000000000000000000000000161590000520210326163642</t>
+  </si>
+  <si>
+    <t>0202001807460008021C Y T REPRESENTACIONES S.A.                          221032600000000010130420210313000000000000000000000000000000000000000000000000068385520000000000000000000000000000000000000000000000000000101304000520210326164010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,8 +410,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,8 +431,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -395,11 +540,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -436,6 +609,19 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -460,19 +646,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,132 +999,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD714456-3746-456D-9BD2-49FD6C80E586}">
-  <dimension ref="A1:A21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067F6767-FC35-40D9-9DB9-1830F354C204}">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +1018,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -943,7 +1035,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -958,7 +1050,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -973,7 +1065,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -988,7 +1080,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1003,7 +1095,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1018,7 +1110,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1033,7 +1125,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1076,7 +1168,7 @@
       <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1105,7 +1197,7 @@
       <c r="H11" s="2">
         <v>2</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="17">
         <v>226</v>
       </c>
     </row>
@@ -1254,12 +1346,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F6C1DE-071E-4594-9E29-8D6D02F43554}">
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1376,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1301,7 +1393,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1316,7 +1408,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
@@ -1331,7 +1423,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1346,14 +1438,14 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="24">
         <v>60</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1361,23 +1453,23 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="21"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1392,7 +1484,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1407,7 +1499,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -1422,7 +1514,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
@@ -1563,10 +1655,10 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="22"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
@@ -1620,7 +1712,7 @@
       <c r="R22" t="s">
         <v>48</v>
       </c>
-      <c r="S22" s="26" t="s">
+      <c r="S22" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1676,7 +1768,7 @@
       <c r="R23" t="s">
         <v>2</v>
       </c>
-      <c r="S23" s="26" t="s">
+      <c r="S23" s="18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1735,7 +1827,7 @@
       <c r="R24">
         <v>15</v>
       </c>
-      <c r="S24" s="26">
+      <c r="S24" s="18">
         <v>49</v>
       </c>
     </row>
@@ -3209,4 +3301,1060 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C26335-5ED5-4616-B088-D806D0528D56}">
+  <dimension ref="A1:U38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" style="40" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="64" style="40" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="32">
+        <v>2</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="32">
+        <v>60</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="35">
+        <v>8</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="38">
+        <v>1</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="35">
+        <v>15</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="35">
+        <v>15</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="35">
+        <v>15</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="35">
+        <v>11</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="35">
+        <v>12</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="38">
+        <v>15</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="38">
+        <v>15</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="38">
+        <v>15</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="35">
+        <v>4</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="35">
+        <v>8</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="38">
+        <v>6</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="35">
+        <v>61</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" t="s">
+        <v>88</v>
+      </c>
+      <c r="J31" t="s">
+        <v>92</v>
+      </c>
+      <c r="K31" t="s">
+        <v>94</v>
+      </c>
+      <c r="L31" t="s">
+        <v>95</v>
+      </c>
+      <c r="M31" t="s">
+        <v>96</v>
+      </c>
+      <c r="N31" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31" t="s">
+        <v>99</v>
+      </c>
+      <c r="P31" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>103</v>
+      </c>
+      <c r="R31" t="s">
+        <v>104</v>
+      </c>
+      <c r="S31" t="s">
+        <v>106</v>
+      </c>
+      <c r="T31" t="s">
+        <v>108</v>
+      </c>
+      <c r="U31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>2</v>
+      </c>
+      <c r="P32" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>2</v>
+      </c>
+      <c r="R32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S32" t="s">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>60</v>
+      </c>
+      <c r="G33">
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>15</v>
+      </c>
+      <c r="K33">
+        <v>15</v>
+      </c>
+      <c r="L33">
+        <v>15</v>
+      </c>
+      <c r="M33">
+        <v>11</v>
+      </c>
+      <c r="N33">
+        <v>12</v>
+      </c>
+      <c r="O33">
+        <v>15</v>
+      </c>
+      <c r="P33">
+        <v>15</v>
+      </c>
+      <c r="Q33">
+        <v>15</v>
+      </c>
+      <c r="R33">
+        <v>4</v>
+      </c>
+      <c r="S33">
+        <v>8</v>
+      </c>
+      <c r="T33">
+        <v>6</v>
+      </c>
+      <c r="U33">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="str">
+        <f>LEFT($A34,B$33)</f>
+        <v>020200179857</v>
+      </c>
+      <c r="C34" t="str">
+        <f>RIGHT(LEFT($A34,SUM($B$33:C$33)),C$33)</f>
+        <v>0013</v>
+      </c>
+      <c r="D34" t="str">
+        <f>RIGHT(LEFT($A34,SUM($B$33:D$33)),D$33)</f>
+        <v>02</v>
+      </c>
+      <c r="E34" t="str">
+        <f>RIGHT(LEFT($A34,SUM($B$33:E$33)),E$33)</f>
+        <v>1</v>
+      </c>
+      <c r="F34" t="str">
+        <f>RIGHT(LEFT($A34,SUM($B$33:F$33)),F$33)</f>
+        <v>GARCIA              VALERIO             EDGAR EDUARDO2210326</v>
+      </c>
+      <c r="G34" t="str">
+        <f>RIGHT(LEFT($A34,SUM($B$33:G$33)),G$33)</f>
+        <v>000000000532590</v>
+      </c>
+      <c r="H34" t="str">
+        <f>RIGHT(LEFT($A34,SUM($B$33:H$33)),H$33)</f>
+        <v>20210313</v>
+      </c>
+      <c r="I34" t="str">
+        <f>RIGHT(LEFT($A34,SUM($B$33:I$33)),I$33)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" t="str">
+        <f>RIGHT(LEFT($A34,SUM($B$33:J$33)),J$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="K34" t="str">
+        <f>RIGHT(LEFT($A34,SUM($B$33:K$33)),K$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="L34" t="str">
+        <f>RIGHT(LEFT($A34,SUM($B$33:L$33)),L$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="M34" t="str">
+        <f>RIGHT(LEFT($A34,SUM($B$33:M$33)),M$33)</f>
+        <v>00068385520</v>
+      </c>
+      <c r="N34" t="str">
+        <f>RIGHT(LEFT($A34,SUM($B$33:N$33)),N$33)</f>
+        <v>000000000000</v>
+      </c>
+      <c r="O34" t="str">
+        <f>RIGHT(LEFT($A34,SUM($B$33:O$33)),O$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="P34" t="str">
+        <f>RIGHT(LEFT($A34,SUM($B$33:P$33)),P$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="Q34" t="str">
+        <f>RIGHT(LEFT($A34,SUM($B$33:Q$33)),Q$33)</f>
+        <v>000000000532590</v>
+      </c>
+      <c r="R34" t="str">
+        <f>RIGHT(LEFT($A34,SUM($B$33:R$33)),R$33)</f>
+        <v>0005</v>
+      </c>
+      <c r="S34" t="str">
+        <f>RIGHT(LEFT($A34,SUM($B$33:S$33)),S$33)</f>
+        <v>20210326</v>
+      </c>
+      <c r="T34" t="str">
+        <f>RIGHT(LEFT($A34,SUM($B$33:T$33)),T$33)</f>
+        <v>163309</v>
+      </c>
+      <c r="U34" t="str">
+        <f>RIGHT(LEFT($A34,SUM($B$33:U$33)),U$33)</f>
+        <v>0000000000000000000000000000000000000532590000520210326163309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" ref="B35:B38" si="0">LEFT($A35,B$33)</f>
+        <v>020200179977</v>
+      </c>
+      <c r="C35" t="str">
+        <f>RIGHT(LEFT($A35,SUM($B$33:C$33)),C$33)</f>
+        <v>0010</v>
+      </c>
+      <c r="D35" t="str">
+        <f>RIGHT(LEFT($A35,SUM($B$33:D$33)),D$33)</f>
+        <v>02</v>
+      </c>
+      <c r="E35" t="str">
+        <f>RIGHT(LEFT($A35,SUM($B$33:E$33)),E$33)</f>
+        <v>1</v>
+      </c>
+      <c r="F35" t="str">
+        <f>RIGHT(LEFT($A35,SUM($B$33:F$33)),F$33)</f>
+        <v>CHUMBIMUNI          SANCHEZ             CECILIA DEL P2210326</v>
+      </c>
+      <c r="G35" t="str">
+        <f>RIGHT(LEFT($A35,SUM($B$33:G$33)),G$33)</f>
+        <v>000000000086741</v>
+      </c>
+      <c r="H35" t="str">
+        <f>RIGHT(LEFT($A35,SUM($B$33:H$33)),H$33)</f>
+        <v>20210313</v>
+      </c>
+      <c r="I35" t="str">
+        <f>RIGHT(LEFT($A35,SUM($B$33:I$33)),I$33)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" t="str">
+        <f>RIGHT(LEFT($A35,SUM($B$33:J$33)),J$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="K35" t="str">
+        <f>RIGHT(LEFT($A35,SUM($B$33:K$33)),K$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="L35" t="str">
+        <f>RIGHT(LEFT($A35,SUM($B$33:L$33)),L$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="M35" t="str">
+        <f>RIGHT(LEFT($A35,SUM($B$33:M$33)),M$33)</f>
+        <v>00068385520</v>
+      </c>
+      <c r="N35" t="str">
+        <f>RIGHT(LEFT($A35,SUM($B$33:N$33)),N$33)</f>
+        <v>000000000000</v>
+      </c>
+      <c r="O35" t="str">
+        <f>RIGHT(LEFT($A35,SUM($B$33:O$33)),O$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="P35" t="str">
+        <f>RIGHT(LEFT($A35,SUM($B$33:P$33)),P$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="Q35" t="str">
+        <f>RIGHT(LEFT($A35,SUM($B$33:Q$33)),Q$33)</f>
+        <v>000000000086741</v>
+      </c>
+      <c r="R35" t="str">
+        <f>RIGHT(LEFT($A35,SUM($B$33:R$33)),R$33)</f>
+        <v>0005</v>
+      </c>
+      <c r="S35" t="str">
+        <f>RIGHT(LEFT($A35,SUM($B$33:S$33)),S$33)</f>
+        <v>20210326</v>
+      </c>
+      <c r="T35" t="str">
+        <f>RIGHT(LEFT($A35,SUM($B$33:T$33)),T$33)</f>
+        <v>163419</v>
+      </c>
+      <c r="U35" t="str">
+        <f>RIGHT(LEFT($A35,SUM($B$33:U$33)),U$33)</f>
+        <v>0000000000000000000000000000000000000086741000520210326163419</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>020200180139</v>
+      </c>
+      <c r="C36" t="str">
+        <f>RIGHT(LEFT($A36,SUM($B$33:C$33)),C$33)</f>
+        <v>0001</v>
+      </c>
+      <c r="D36" t="str">
+        <f>RIGHT(LEFT($A36,SUM($B$33:D$33)),D$33)</f>
+        <v>04</v>
+      </c>
+      <c r="E36" t="str">
+        <f>RIGHT(LEFT($A36,SUM($B$33:E$33)),E$33)</f>
+        <v>1</v>
+      </c>
+      <c r="F36" t="str">
+        <f>RIGHT(LEFT($A36,SUM($B$33:F$33)),F$33)</f>
+        <v>VELEZ               BENDEZU             VERONICA PATR2210326</v>
+      </c>
+      <c r="G36" t="str">
+        <f>RIGHT(LEFT($A36,SUM($B$33:G$33)),G$33)</f>
+        <v>000000002303996</v>
+      </c>
+      <c r="H36" t="str">
+        <f>RIGHT(LEFT($A36,SUM($B$33:H$33)),H$33)</f>
+        <v>20210313</v>
+      </c>
+      <c r="I36" t="str">
+        <f>RIGHT(LEFT($A36,SUM($B$33:I$33)),I$33)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" t="str">
+        <f>RIGHT(LEFT($A36,SUM($B$33:J$33)),J$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="K36" t="str">
+        <f>RIGHT(LEFT($A36,SUM($B$33:K$33)),K$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="L36" t="str">
+        <f>RIGHT(LEFT($A36,SUM($B$33:L$33)),L$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="M36" t="str">
+        <f>RIGHT(LEFT($A36,SUM($B$33:M$33)),M$33)</f>
+        <v>00068385520</v>
+      </c>
+      <c r="N36" t="str">
+        <f>RIGHT(LEFT($A36,SUM($B$33:N$33)),N$33)</f>
+        <v>000000000000</v>
+      </c>
+      <c r="O36" t="str">
+        <f>RIGHT(LEFT($A36,SUM($B$33:O$33)),O$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="P36" t="str">
+        <f>RIGHT(LEFT($A36,SUM($B$33:P$33)),P$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="Q36" t="str">
+        <f>RIGHT(LEFT($A36,SUM($B$33:Q$33)),Q$33)</f>
+        <v>000000000303996</v>
+      </c>
+      <c r="R36" t="str">
+        <f>RIGHT(LEFT($A36,SUM($B$33:R$33)),R$33)</f>
+        <v>0005</v>
+      </c>
+      <c r="S36" t="str">
+        <f>RIGHT(LEFT($A36,SUM($B$33:S$33)),S$33)</f>
+        <v>20210326</v>
+      </c>
+      <c r="T36" t="str">
+        <f>RIGHT(LEFT($A36,SUM($B$33:T$33)),T$33)</f>
+        <v>163551</v>
+      </c>
+      <c r="U36" t="str">
+        <f>RIGHT(LEFT($A36,SUM($B$33:U$33)),U$33)</f>
+        <v>000000000000000000000000000303996000520210326163551  &lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>020200180230</v>
+      </c>
+      <c r="C37" t="str">
+        <f>RIGHT(LEFT($A37,SUM($B$33:C$33)),C$33)</f>
+        <v>0006</v>
+      </c>
+      <c r="D37" t="str">
+        <f>RIGHT(LEFT($A37,SUM($B$33:D$33)),D$33)</f>
+        <v>02</v>
+      </c>
+      <c r="E37" t="str">
+        <f>RIGHT(LEFT($A37,SUM($B$33:E$33)),E$33)</f>
+        <v>1</v>
+      </c>
+      <c r="F37" t="str">
+        <f>RIGHT(LEFT($A37,SUM($B$33:F$33)),F$33)</f>
+        <v>PERALTA             MORALES             MELCHOR      2210326</v>
+      </c>
+      <c r="G37" t="str">
+        <f>RIGHT(LEFT($A37,SUM($B$33:G$33)),G$33)</f>
+        <v>000000000161590</v>
+      </c>
+      <c r="H37" t="str">
+        <f>RIGHT(LEFT($A37,SUM($B$33:H$33)),H$33)</f>
+        <v>20210313</v>
+      </c>
+      <c r="I37" t="str">
+        <f>RIGHT(LEFT($A37,SUM($B$33:I$33)),I$33)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" t="str">
+        <f>RIGHT(LEFT($A37,SUM($B$33:J$33)),J$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="K37" t="str">
+        <f>RIGHT(LEFT($A37,SUM($B$33:K$33)),K$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="L37" t="str">
+        <f>RIGHT(LEFT($A37,SUM($B$33:L$33)),L$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="M37" t="str">
+        <f>RIGHT(LEFT($A37,SUM($B$33:M$33)),M$33)</f>
+        <v>00068385520</v>
+      </c>
+      <c r="N37" t="str">
+        <f>RIGHT(LEFT($A37,SUM($B$33:N$33)),N$33)</f>
+        <v>000000000000</v>
+      </c>
+      <c r="O37" t="str">
+        <f>RIGHT(LEFT($A37,SUM($B$33:O$33)),O$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="P37" t="str">
+        <f>RIGHT(LEFT($A37,SUM($B$33:P$33)),P$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="Q37" t="str">
+        <f>RIGHT(LEFT($A37,SUM($B$33:Q$33)),Q$33)</f>
+        <v>000000000161590</v>
+      </c>
+      <c r="R37" t="str">
+        <f>RIGHT(LEFT($A37,SUM($B$33:R$33)),R$33)</f>
+        <v>0005</v>
+      </c>
+      <c r="S37" t="str">
+        <f>RIGHT(LEFT($A37,SUM($B$33:S$33)),S$33)</f>
+        <v>20210326</v>
+      </c>
+      <c r="T37" t="str">
+        <f>RIGHT(LEFT($A37,SUM($B$33:T$33)),T$33)</f>
+        <v>163642</v>
+      </c>
+      <c r="U37" t="str">
+        <f>RIGHT(LEFT($A37,SUM($B$33:U$33)),U$33)</f>
+        <v>0000000000000000000000000000000000000161590000520210326163642</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>020200180746</v>
+      </c>
+      <c r="C38" t="str">
+        <f>RIGHT(LEFT($A38,SUM($B$33:C$33)),C$33)</f>
+        <v>0008</v>
+      </c>
+      <c r="D38" t="str">
+        <f>RIGHT(LEFT($A38,SUM($B$33:D$33)),D$33)</f>
+        <v>02</v>
+      </c>
+      <c r="E38" t="str">
+        <f>RIGHT(LEFT($A38,SUM($B$33:E$33)),E$33)</f>
+        <v>1</v>
+      </c>
+      <c r="F38" t="str">
+        <f>RIGHT(LEFT($A38,SUM($B$33:F$33)),F$33)</f>
+        <v>C Y T REPRESENTACIONES S.A.                          2210326</v>
+      </c>
+      <c r="G38" t="str">
+        <f>RIGHT(LEFT($A38,SUM($B$33:G$33)),G$33)</f>
+        <v>000000000101304</v>
+      </c>
+      <c r="H38" t="str">
+        <f>RIGHT(LEFT($A38,SUM($B$33:H$33)),H$33)</f>
+        <v>20210313</v>
+      </c>
+      <c r="I38" t="str">
+        <f>RIGHT(LEFT($A38,SUM($B$33:I$33)),I$33)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" t="str">
+        <f>RIGHT(LEFT($A38,SUM($B$33:J$33)),J$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="K38" t="str">
+        <f>RIGHT(LEFT($A38,SUM($B$33:K$33)),K$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="L38" t="str">
+        <f>RIGHT(LEFT($A38,SUM($B$33:L$33)),L$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="M38" t="str">
+        <f>RIGHT(LEFT($A38,SUM($B$33:M$33)),M$33)</f>
+        <v>00068385520</v>
+      </c>
+      <c r="N38" t="str">
+        <f>RIGHT(LEFT($A38,SUM($B$33:N$33)),N$33)</f>
+        <v>000000000000</v>
+      </c>
+      <c r="O38" t="str">
+        <f>RIGHT(LEFT($A38,SUM($B$33:O$33)),O$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="P38" t="str">
+        <f>RIGHT(LEFT($A38,SUM($B$33:P$33)),P$33)</f>
+        <v>000000000000000</v>
+      </c>
+      <c r="Q38" t="str">
+        <f>RIGHT(LEFT($A38,SUM($B$33:Q$33)),Q$33)</f>
+        <v>000000000101304</v>
+      </c>
+      <c r="R38" t="str">
+        <f>RIGHT(LEFT($A38,SUM($B$33:R$33)),R$33)</f>
+        <v>0005</v>
+      </c>
+      <c r="S38" t="str">
+        <f>RIGHT(LEFT($A38,SUM($B$33:S$33)),S$33)</f>
+        <v>20210326</v>
+      </c>
+      <c r="T38" t="str">
+        <f>RIGHT(LEFT($A38,SUM($B$33:T$33)),T$33)</f>
+        <v>164010</v>
+      </c>
+      <c r="U38" t="str">
+        <f>RIGHT(LEFT($A38,SUM($B$33:U$33)),U$33)</f>
+        <v>0000000000000000000000000000000000000101304000520210326164010</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>